--- a/Data/Transitions/18891941Translation.xlsx
+++ b/Data/Transitions/18891941Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="873">
   <si>
     <t>id</t>
   </si>
@@ -28,22 +28,22 @@
     <t>{1.0: 1.0}</t>
   </si>
   <si>
-    <t>{486.0: 0.15701727550325684, 837.0: 0.002100902288399068}</t>
-  </si>
-  <si>
-    <t>{3.0: 0.7013754525363534}</t>
+    <t>{486.0: 0.15920630519368856, 837.0: 0.002186026782725736}</t>
+  </si>
+  <si>
+    <t>{3.0: 0.6949628567939019}</t>
   </si>
   <si>
     <t>{4.0: 1.0}</t>
   </si>
   <si>
-    <t>{5.0: 0.9881325570980743}</t>
+    <t>{5.0: 0.988177559669864}</t>
   </si>
   <si>
     <t>{6.0: 1.0}</t>
   </si>
   <si>
-    <t>{7.0: 0.9854496071393928}</t>
+    <t>{7.0: 0.9853027630805409}</t>
   </si>
   <si>
     <t>{8.0: 1.0}</t>
@@ -52,7 +52,7 @@
     <t>{9.0: 1.0}</t>
   </si>
   <si>
-    <t>{10.0: 0.9896835717381881}</t>
+    <t>{10.0: 0.9895951735594999}</t>
   </si>
   <si>
     <t>{11.0: 1.0}</t>
@@ -64,7 +64,7 @@
     <t>{13.0: 0.7259633800658852}</t>
   </si>
   <si>
-    <t>{14.0: 0.9690805402261538, 178.0: 0.00016231131309852296, 623.0: 0.0007625438462711606, 696.0: 0.0029159241859711645, 492.0: 1.804702755802187e-05}</t>
+    <t>{14.0: 0.9691308133691171, 178.0: 0.00016329196603527107, 623.0: 0.0007645259938837921, 696.0: 0.002995008319467554, 492.0: 1.842729104452426e-05}</t>
   </si>
   <si>
     <t>{15.0: 1.0}</t>
@@ -73,7 +73,7 @@
     <t>{16.0: 1.0}</t>
   </si>
   <si>
-    <t>{17.0: 0.989010989010989}</t>
+    <t>{17.0: 0.9890756302521009}</t>
   </si>
   <si>
     <t>{18.0: 1.0}</t>
@@ -85,7 +85,7 @@
     <t>{32.0: 1.0}</t>
   </si>
   <si>
-    <t>{34.0: 1.0, 78.0: 0.13866427073974244}</t>
+    <t>{34.0: 1.0, 78.0: 0.12802433291856768}</t>
   </si>
   <si>
     <t>{35.0: 1.0}</t>
@@ -100,19 +100,19 @@
     <t>{43.0: 1.0}</t>
   </si>
   <si>
-    <t>{44.0: 0.9798798798798799}</t>
+    <t>{44.0: 0.9800980246546859}</t>
   </si>
   <si>
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 1.0, 90.0: 0.020710491553906, 246.0: 0.01497582965958572, 681.0: 0.0030888723019257, 741.0: 0.006816245384833854, 789.0: 0.0030857033245445683}</t>
+    <t>{46.0: 1.0, 90.0: 0.020732328647176654, 246.0: 0.014966331567818519, 681.0: 0.003093174352485485, 741.0: 0.006816245384833854, 789.0: 0.0030919626462848826}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
   </si>
   <si>
-    <t>{48.0: 1.0, 443.0: 0.03765690376569038, 291.0: 0.0025782349920288987}</t>
+    <t>{48.0: 1.0, 443.0: 0.03748355984217448, 291.0: 0.002574966691196572}</t>
   </si>
   <si>
     <t>{49.0: 1.0}</t>
@@ -130,7 +130,7 @@
     <t>{60.0: 1.0}</t>
   </si>
   <si>
-    <t>{834.0: 0.42733454268782284}</t>
+    <t>{834.0: 0.42673645002733873}</t>
   </si>
   <si>
     <t>{62.0: 1.0}</t>
@@ -142,40 +142,40 @@
     <t>{69.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: 0.023259052924791086}</t>
-  </si>
-  <si>
-    <t>{71.0: 0.9823489268718721}</t>
+    <t>{311.0: 0.023413950227830355}</t>
+  </si>
+  <si>
+    <t>{71.0: 0.9826600348172096}</t>
   </si>
   <si>
     <t>{72.0: 1.0}</t>
   </si>
   <si>
-    <t>{73.0: 0.9985699985699986}</t>
+    <t>{73.0: 0.9985652797704447}</t>
   </si>
   <si>
     <t>{74.0: 1.0}</t>
   </si>
   <si>
-    <t>{75.0: 1.0, 917.0: 0.04385213002977653}</t>
+    <t>{75.0: 1.0, 917.0: 0.044165655930525655}</t>
   </si>
   <si>
     <t>{76.0: 1.0}</t>
   </si>
   <si>
-    <t>{77.0: 1.0, 85.0: 0.0009282896263634254}</t>
-  </si>
-  <si>
-    <t>{78.0: 0.8613357292602576}</t>
+    <t>{77.0: 1.0, 85.0: 0.0009250693802035153}</t>
+  </si>
+  <si>
+    <t>{78.0: 0.8719756670814324}</t>
   </si>
   <si>
     <t>{79.0: 1.0}</t>
   </si>
   <si>
-    <t>{764.0: 0.1492238996385286, 757.0: 0.09884409779544716}</t>
-  </si>
-  <si>
-    <t>{81.0: 0.7809903028418587, 172.0: 0.0016461579677927844}</t>
+    <t>{764.0: 0.1490527567751253, 757.0: 0.12341023780423667}</t>
+  </si>
+  <si>
+    <t>{81.0: 0.7790212317198133, 172.0: 0.0016363927947164638}</t>
   </si>
   <si>
     <t>{82.0: 1.0}</t>
@@ -187,10 +187,10 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.9954755017423704, 178.0: 0.008754152442495772, 14.0: 0.00027071760482978463}</t>
-  </si>
-  <si>
-    <t>{86.0: 0.3966038535953838}</t>
+    <t>{85.0: 0.9954402787576053, 178.0: 0.008800518701521449, 14.0: 0.00027170922217892025}</t>
+  </si>
+  <si>
+    <t>{86.0: 0.39472598793346425}</t>
   </si>
   <si>
     <t>{87.0: 1.0}</t>
@@ -202,13 +202,13 @@
     <t>{89.0: 1.0}</t>
   </si>
   <si>
-    <t>{90.0: 0.9458762626498309}</t>
-  </si>
-  <si>
-    <t>{91.0: 0.9996668959460804, 92.0: 0.0022894964743212487}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.895849769001016}</t>
+    <t>{90.0: 0.9458544255565603}</t>
+  </si>
+  <si>
+    <t>{91.0: 0.9996710680889056, 92.0: 0.002229346176174735}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.8964991540825867}</t>
   </si>
   <si>
     <t>{93.0: 1.0}</t>
@@ -223,10 +223,10 @@
     <t>{96.0: 1.0}</t>
   </si>
   <si>
-    <t>{97.0: 0.9961333977767037}</t>
-  </si>
-  <si>
-    <t>{98.0: 0.3186909432682987}</t>
+    <t>{97.0: 0.9961451975586251}</t>
+  </si>
+  <si>
+    <t>{98.0: 0.3217218663429814}</t>
   </si>
   <si>
     <t>{99.0: 1.0}</t>
@@ -244,46 +244,46 @@
     <t>{103.0: 1.0}</t>
   </si>
   <si>
-    <t>{92.0: 0.04807960898129882}</t>
+    <t>{92.0: 0.04749038575004915}</t>
   </si>
   <si>
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{543.0: -0.005128927996402795, 86.0: -0.0022646779270950896}</t>
-  </si>
-  <si>
-    <t>{108.0: 0.9912172052696768, 144.0: 0.008141609952717104}</t>
-  </si>
-  <si>
-    <t>{109.0: 1.0, 110.0: 0.0231353591160221}</t>
-  </si>
-  <si>
-    <t>{110.0: 0.976864640883978}</t>
+    <t>{543.0: 0.3814859516448283, 86.0: 0.1685234797025494}</t>
+  </si>
+  <si>
+    <t>{108.0: 0.9912221471978393, 144.0: 0.008141467939881864}</t>
+  </si>
+  <si>
+    <t>{109.0: 1.0, 110.0: 0.02275042444821732}</t>
+  </si>
+  <si>
+    <t>{110.0: 0.9772495755517827}</t>
   </si>
   <si>
     <t>{139.0: 0.6022249604757921}</t>
   </si>
   <si>
-    <t>{141.0: 0.03256451940662467}</t>
-  </si>
-  <si>
-    <t>{141.0: 0.678207582535171, 762.0: 0.7010364992187316}</t>
-  </si>
-  <si>
-    <t>{142.0: 0.6824977236609803, 44.0: 0.02012012012012012}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9560112890544774}</t>
+    <t>{141.0: 0.0324770735167452}</t>
+  </si>
+  <si>
+    <t>{141.0: 0.6782688852956832, 762.0: 0.7010364992187316}</t>
+  </si>
+  <si>
+    <t>{142.0: 0.6824606825091657, 44.0: 0.019901975345314123}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9559939909401058}</t>
   </si>
   <si>
     <t>{145.0: 1.0}</t>
   </si>
   <si>
-    <t>{146.0: 0.6945303597590754}</t>
-  </si>
-  <si>
-    <t>{147.0: 0.9236299600867051, 764.0: 0.02364448224537529, 733.0: 0.0815552394499763}</t>
+    <t>{146.0: 0.7349950571953114}</t>
+  </si>
+  <si>
+    <t>{147.0: 0.9177237229897864, 764.0: 0.023617364709880215, 733.0: 0.07612303606992697}</t>
   </si>
   <si>
     <t>{148.0: 1.0}</t>
@@ -298,10 +298,10 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 0.9995648863265528, 975.0: 0.0008214690645289342}</t>
-  </si>
-  <si>
-    <t>{162.0: 0.6392101731740047}</t>
+    <t>{152.0: 0.9995732878173672, 975.0: 0.0008214403552842996}</t>
+  </si>
+  <si>
+    <t>{162.0: 0.6433579685427326}</t>
   </si>
   <si>
     <t>{163.0: 1.0}</t>
@@ -310,16 +310,16 @@
     <t>{164.0: 1.0}</t>
   </si>
   <si>
-    <t>{165.0: 0.9615337347916922, 914.0: 0.02521597011440579}</t>
-  </si>
-  <si>
-    <t>{166.0: 1.0, 893.0: 0.002105263157894737}</t>
+    <t>{165.0: 0.9614104302798668, 914.0: 0.02521597011440579}</t>
+  </si>
+  <si>
+    <t>{166.0: 1.0, 893.0: 0.002254791431792559}</t>
   </si>
   <si>
     <t>{167.0: 1.0}</t>
   </si>
   <si>
-    <t>{168.0: 0.9984929829518696}</t>
+    <t>{168.0: 0.9984805318138652}</t>
   </si>
   <si>
     <t>{169.0: 1.0}</t>
@@ -328,16 +328,16 @@
     <t>{170.0: 1.0}</t>
   </si>
   <si>
-    <t>{171.0: 0.6837236456320245}</t>
-  </si>
-  <si>
-    <t>{172.0: 0.9411677681411907, 81.0: 0.003681063393975768}</t>
-  </si>
-  <si>
-    <t>{173.0: 0.8485467756584922, 404.0: 0.0018815796195495028}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.9934177215189873, 534.0: 0.04943118981305118}</t>
+    <t>{171.0: 0.6866020196252851}</t>
+  </si>
+  <si>
+    <t>{172.0: 0.9404908672461181, 81.0: 0.0036717947657656834}</t>
+  </si>
+  <si>
+    <t>{173.0: 0.8485467756584922, 404.0: 0.0018972420324217974}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.9934541792547835, 534.0: 0.04700343385884175}</t>
   </si>
   <si>
     <t>{175.0: 1.0}</t>
@@ -349,61 +349,61 @@
     <t>{562.0: 0.3589476967869398}</t>
   </si>
   <si>
-    <t>{178.0: 0.9910835362444057, 14.0: 0.030648742169016453}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.052969537756027016, 410.0: 0.0005800249103909993, 277.0: 4.026825925347566e-06}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.9032832360569875, 410.0: 0.023981799179627856, 277.0: 0.00016649376422110128}</t>
+    <t>{178.0: 0.9910361893324433, 14.0: 0.030597477408703968}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.04990563524501632, 410.0: 0.0005683393899725376, 277.0: 3.9957612970513425e-06}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.9133637954772627, 410.0: 0.023784103385343952, 277.0: 0.00016721628215284767}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.6468848045152845, 277.0: 0.0016320956571106234, 180.0: 3.2668736665918865e-05}</t>
-  </si>
-  <si>
-    <t>{182.0: 0.16269738981458448}</t>
-  </si>
-  <si>
-    <t>{184.0: 0.997979117547996, 171.0: 0.058624217874188374, 593.0: 0.04805087026806601, 778.0: 0.0005968011458582001}</t>
+    <t>{182.0: 0.6458285932967373, 277.0: 0.001633178723995504, 180.0: 5.360608468307691e-05}</t>
+  </si>
+  <si>
+    <t>{182.0: 0.16318645920505354}</t>
+  </si>
+  <si>
+    <t>{184.0: 0.9979626485568761, 171.0: 0.05859717183288125, 593.0: 0.047934463496061015, 778.0: 0.0005811250581125058}</t>
   </si>
   <si>
     <t>{185.0: 0.9243525670149931}</t>
   </si>
   <si>
-    <t>{202.0: 0.9216604108666339}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.8504763219660362}</t>
-  </si>
-  <si>
-    <t>{204.0: 0.7106715641844588, 857.0: 0.004858248839482561}</t>
+    <t>{202.0: 0.9217296702120339}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.8511544804837823}</t>
+  </si>
+  <si>
+    <t>{204.0: 0.7106600987110239, 857.0: 0.004856450905275958}</t>
   </si>
   <si>
     <t>{205.0: 1.0}</t>
   </si>
   <si>
-    <t>{206.0: 0.8527388535031847, 785.0: 0.12581933996307887}</t>
-  </si>
-  <si>
-    <t>{207.0: 1.0, 477.0: 0.07756537024829707}</t>
+    <t>{206.0: 0.8527388535031847, 785.0: 0.1295359842365321}</t>
+  </si>
+  <si>
+    <t>{207.0: 1.0, 477.0: 0.07758241758241759}</t>
   </si>
   <si>
     <t>{208.0: 1.0}</t>
   </si>
   <si>
-    <t>{209.0: 0.9932935916542474}</t>
+    <t>{209.0: 0.9932177844762623}</t>
   </si>
   <si>
     <t>{210.0: 1.0}</t>
   </si>
   <si>
-    <t>{211.0: 0.970627863109674}</t>
-  </si>
-  <si>
-    <t>{212.0: 0.9991899554475496, 681.0: 0.13061056633508267}</t>
+    <t>{211.0: 0.9704727075714479}</t>
+  </si>
+  <si>
+    <t>{212.0: 0.9991932230738201, 681.0: 0.1306188090671689}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -412,16 +412,16 @@
     <t>{214.0: 1.0}</t>
   </si>
   <si>
-    <t>{897.0: 0.24406536889838756}</t>
-  </si>
-  <si>
-    <t>{265.0: 0.18569618736466076}</t>
-  </si>
-  <si>
-    <t>{217.0: 0.9946335737045111}</t>
-  </si>
-  <si>
-    <t>{218.0: 1.0, 409.0: 0.12090597299870061}</t>
+    <t>{897.0: 0.24357767221532678}</t>
+  </si>
+  <si>
+    <t>{265.0: 0.13819736127734558}</t>
+  </si>
+  <si>
+    <t>{217.0: 0.9945955075156223}</t>
+  </si>
+  <si>
+    <t>{218.0: 1.0, 409.0: 0.12102073873692254}</t>
   </si>
   <si>
     <t>{480.0: 0.36969409532843256}</t>
@@ -430,10 +430,10 @@
     <t>{221.0: 1.0, 999.0: 1.0}</t>
   </si>
   <si>
-    <t>{222.0: 1.0, 490.0: 0.002387696028954705, 503.0: 0.048680958673208055}</t>
-  </si>
-  <si>
-    <t>{223.0: 0.9808052434456929}</t>
+    <t>{222.0: 1.0, 490.0: 0.0023962824030009516, 503.0: 0.048910714816067735}</t>
+  </si>
+  <si>
+    <t>{223.0: 0.9809390980939098}</t>
   </si>
   <si>
     <t>{225.0: 1.0}</t>
@@ -442,10 +442,10 @@
     <t>{226.0: 0.9303888093402357}</t>
   </si>
   <si>
-    <t>{227.0: 0.6609982656151687, 297.0: 4.127455836222553e-05, 686.0: 6.520786798273537e-05}</t>
-  </si>
-  <si>
-    <t>{228.0: 1.0, 738.0: 0.003872216844143272}</t>
+    <t>{227.0: 0.6206265284284248, 297.0: 4.15092773234818e-05, 686.0: 6.532095759883434e-05}</t>
+  </si>
+  <si>
+    <t>{228.0: 1.0, 738.0: 0.003875968992248062}</t>
   </si>
   <si>
     <t>{229.0: 1.0}</t>
@@ -478,10 +478,13 @@
     <t>{595.0: 0.2768752160387141}</t>
   </si>
   <si>
-    <t>{240.0: 1.0, 241.0: 0.8195167255485202}</t>
-  </si>
-  <si>
-    <t>{241.0: 0.18048327445147982}</t>
+    <t>{240.0: 1.0, 241.0: 0.8103169425483226}</t>
+  </si>
+  <si>
+    <t>{241.0: 0.1896830574516774}</t>
+  </si>
+  <si>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -490,7 +493,7 @@
     <t>{244.0: 1.0}</t>
   </si>
   <si>
-    <t>{246.0: 0.6411979451724658}</t>
+    <t>{246.0: 0.6414567650874317}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -499,13 +502,13 @@
     <t>{248.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.7306727153256398}</t>
-  </si>
-  <si>
-    <t>{581.0: 0.2846212700841622, 144.0: 0.009906792712120634}</t>
-  </si>
-  <si>
-    <t>{251.0: 0.4466893330379997}</t>
+    <t>{249.0: 0.72999062888997}</t>
+  </si>
+  <si>
+    <t>{581.0: 0.2844347351174222, 144.0: 0.009906457384172054}</t>
+  </si>
+  <si>
+    <t>{251.0: 0.46403865886525403}</t>
   </si>
   <si>
     <t>{252.0: 1.0}</t>
@@ -541,28 +544,28 @@
     <t>{262.0: 1.0}</t>
   </si>
   <si>
-    <t>{263.0: 1.0, 595.0: 0.0011233736389031051}</t>
-  </si>
-  <si>
-    <t>{264.0: 0.6835574988873149}</t>
-  </si>
-  <si>
-    <t>{265.0: 0.3553158701756005}</t>
-  </si>
-  <si>
-    <t>{834.0: 0.04639473584516582, 887.0: 0.17626442298656703}</t>
+    <t>{263.0: 1.0, 595.0: 0.0011355634645057963}</t>
+  </si>
+  <si>
+    <t>{264.0: 0.682497900938089}</t>
+  </si>
+  <si>
+    <t>{265.0: 0.4028146962629157}</t>
+  </si>
+  <si>
+    <t>{834.0: 0.04700377208796266, 887.0: 0.17737532539717435}</t>
   </si>
   <si>
     <t>{268.0: 0.8952197553239691}</t>
   </si>
   <si>
-    <t>{270.0: 1.0, 479.0: 0.02117183653372723, 942.0: 0.00019483285153736716}</t>
+    <t>{270.0: 1.0, 479.0: 0.020544672718585764, 942.0: 0.00018927913445146194}</t>
   </si>
   <si>
     <t>{271.0: 1.0}</t>
   </si>
   <si>
-    <t>{272.0: 1.0, 203.0: 0.14952367803396382}</t>
+    <t>{272.0: 1.0, 203.0: 0.1488455195162177}</t>
   </si>
   <si>
     <t>{273.0: 1.0}</t>
@@ -571,16 +574,16 @@
     <t>{274.0: 1.0}</t>
   </si>
   <si>
-    <t>{686.0: 0.3946098826756189}</t>
-  </si>
-  <si>
-    <t>{276.0: 0.6655472862588492}</t>
-  </si>
-  <si>
-    <t>{277.0: 0.6445817789318075, 180.0: 0.01290222929264584}</t>
-  </si>
-  <si>
-    <t>{278.0: 1.0, 767.0: 0.007574832009773977, 757.0: 0.019383998992673238}</t>
+    <t>{686.0: 0.39461948541510167}</t>
+  </si>
+  <si>
+    <t>{276.0: 0.6650608980185421}</t>
+  </si>
+  <si>
+    <t>{277.0: 0.6444331106212848, 180.0: 0.021152330356122347}</t>
+  </si>
+  <si>
+    <t>{278.0: 1.0, 767.0: 0.006935123042505592, 757.0: 0.02227579891858211}</t>
   </si>
   <si>
     <t>{279.0: 1.0}</t>
@@ -592,7 +595,7 @@
     <t>{281.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.19041780567013103}</t>
+    <t>{182.0: 0.19098494749820913}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -604,22 +607,22 @@
     <t>{285.0: 1.0}</t>
   </si>
   <si>
-    <t>{909.0: 0.1776004475142387}</t>
+    <t>{909.0: 0.18034251035223528}</t>
   </si>
   <si>
     <t>{287.0: 1.0}</t>
   </si>
   <si>
-    <t>{288.0: 0.9978448275862069}</t>
-  </si>
-  <si>
-    <t>{289.0: 0.8378034656314187, 730.0: 0.2998825373404282}</t>
+    <t>{288.0: 0.9978511952726296}</t>
+  </si>
+  <si>
+    <t>{289.0: 0.8379762146830797, 730.0: 0.30062820449168093}</t>
   </si>
   <si>
     <t>{290.0: 1.0}</t>
   </si>
   <si>
-    <t>{291.0: 0.9315335374338992}</t>
+    <t>{291.0: 0.9313041049986037}</t>
   </si>
   <si>
     <t>{292.0: 1.0, 139.0: 0.07253950479034466}</t>
@@ -637,10 +640,10 @@
     <t>{296.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.9935198943371306}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.5243254148187214, 297.0: 0.005448241703813769}</t>
+    <t>{297.0: 0.9934830434602133}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.5212564069352182, 297.0: 0.005479224606699597}</t>
   </si>
   <si>
     <t>{299.0: 1.0}</t>
@@ -655,16 +658,16 @@
     <t>{302.0: 1.0}</t>
   </si>
   <si>
-    <t>{303.0: 0.9137777777777778, 144.0: 0.0009680310073963151}</t>
+    <t>{303.0: 0.9136242208370436, 144.0: 0.0009638655596774717}</t>
   </si>
   <si>
     <t>{304.0: 1.0}</t>
   </si>
   <si>
-    <t>{305.0: 0.7922672313682628}</t>
-  </si>
-  <si>
-    <t>{142.0: 0.31750227633901973, 909.0: 0.40590425741616165}</t>
+    <t>{305.0: 0.7921536463673023}</t>
+  </si>
+  <si>
+    <t>{142.0: 0.3175393174908343, 909.0: 0.4059227876252623}</t>
   </si>
   <si>
     <t>{307.0: 1.0}</t>
@@ -673,13 +676,13 @@
     <t>{308.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 1.0, 204.0: 0.019816749671968618, 426.0: 0.03955197759887994, 857.0: 5.0486552666831835e-06}</t>
+    <t>{309.0: 1.0, 204.0: 0.01982821514540354, 426.0: 0.039725786605730354, 857.0: 5.050535780260245e-06}</t>
   </si>
   <si>
     <t>{310.0: 1.0, 887.0: 0.029663050782374963}</t>
   </si>
   <si>
-    <t>{311.0: 0.9767409470752089, 917.0: 0.024578971324533454}</t>
+    <t>{311.0: 0.9765860497721697, 917.0: 0.024578971324533454}</t>
   </si>
   <si>
     <t>{313.0: 1.0}</t>
@@ -688,13 +691,13 @@
     <t>{314.0: 1.0}</t>
   </si>
   <si>
-    <t>{315.0: 1.0, 217.0: 0.005366426295488848}</t>
+    <t>{315.0: 1.0, 217.0: 0.005404492484377639}</t>
   </si>
   <si>
     <t>{316.0: 1.0}</t>
   </si>
   <si>
-    <t>{317.0: 1.0, 71.0: 0.009075383344384338}</t>
+    <t>{317.0: 1.0, 71.0: 0.008760009947774185}</t>
   </si>
   <si>
     <t>{318.0: 1.0}</t>
@@ -703,31 +706,28 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{98.0: 0.6813090567317013}</t>
+    <t>{98.0: 0.6782781336570187}</t>
   </si>
   <si>
     <t>{399.0: 1.0}</t>
   </si>
   <si>
-    <t>{400.0: 1.0, 897.0: 0.017055178518737092}</t>
+    <t>{400.0: 1.0, 897.0: 0.016870001751211255}</t>
   </si>
   <si>
     <t>{401.0: 0.9842657342657343}</t>
   </si>
   <si>
-    <t>{402.0: 0.9989673688558447, 476.0: 0.014918474591968642, 595.0: 0.0010174094213087344}</t>
-  </si>
-  <si>
-    <t>{403.0: 0.8801185344827587}</t>
-  </si>
-  <si>
-    <t>{404.0: 0.6414580985023324}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.29179797477582636}</t>
+    <t>{402.0: 0.9989634083134653, 476.0: 0.014890400101380591, 595.0: 0.0010093477355885693}</t>
+  </si>
+  <si>
+    <t>{403.0: 0.8776632302405498}</t>
+  </si>
+  <si>
+    <t>{404.0: 0.6387648444367231}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.29439526531131543}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -736,13 +736,13 @@
     <t>{407.0: 1.0}</t>
   </si>
   <si>
-    <t>{408.0: 1.0, 403.0: 0.11988146551724138}</t>
-  </si>
-  <si>
-    <t>{409.0: 0.8790940270012993}</t>
-  </si>
-  <si>
-    <t>{410.0: 0.6920026961014009}</t>
+    <t>{408.0: 1.0, 403.0: 0.12233676975945017}</t>
+  </si>
+  <si>
+    <t>{409.0: 0.8789792612630773}</t>
+  </si>
+  <si>
+    <t>{410.0: 0.6922120774161032}</t>
   </si>
   <si>
     <t>{268.0: 0.10478024467603081}</t>
@@ -754,7 +754,7 @@
     <t>{414.0: 1.0}</t>
   </si>
   <si>
-    <t>{415.0: 1.0, 277.0: 0.025258868390645006, 180.0: 0.0005055924978036709}</t>
+    <t>{415.0: 1.0, 277.0: 0.025275135519761547, 180.0: 0.0008296097880419807}</t>
   </si>
   <si>
     <t>{416.0: 1.0}</t>
@@ -763,28 +763,28 @@
     <t>{417.0: 1.0}</t>
   </si>
   <si>
-    <t>{418.0: 0.8796827421550545}</t>
-  </si>
-  <si>
-    <t>{419.0: 1.0, 17.0: 0.01098901098901099}</t>
-  </si>
-  <si>
-    <t>{420.0: 0.865523866886647, 212.0: 0.0008100445524503848, 681.0: 0.00010588615025138442}</t>
+    <t>{418.0: 0.879367457019463}</t>
+  </si>
+  <si>
+    <t>{419.0: 1.0, 17.0: 0.010924369747899159}</t>
+  </si>
+  <si>
+    <t>{420.0: 0.8641091794830309, 212.0: 0.0008067769261799112, 681.0: 0.00010546532827385459}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
   </si>
   <si>
-    <t>{423.0: 0.9963219385547382}</t>
-  </si>
-  <si>
-    <t>{424.0: 1.0, 585.0: 0.012401653553807174, 434.0: 0.0002397507716904726}</t>
+    <t>{423.0: 0.9963346269943941}</t>
+  </si>
+  <si>
+    <t>{424.0: 1.0, 585.0: 0.012528627239660514, 434.0: 0.00021743081720157614}</t>
   </si>
   <si>
     <t>{425.0: 1.0}</t>
   </si>
   <si>
-    <t>{426.0: 0.96044802240112}</t>
+    <t>{426.0: 0.9602742133942697}</t>
   </si>
   <si>
     <t>{428.0: 0.9962857389651896}</t>
@@ -793,19 +793,19 @@
     <t>{429.0: 1.0}</t>
   </si>
   <si>
-    <t>{431.0: 0.20959724221790005, 783.0: 0.0003181673560292714}</t>
-  </si>
-  <si>
-    <t>{431.0: 0.49471176732203737}</t>
+    <t>{431.0: 0.15616427925643236, 783.0: 0.0003204101249599487}</t>
+  </si>
+  <si>
+    <t>{431.0: 0.5481447302835051}</t>
   </si>
   <si>
     <t>{432.0: 1.0}</t>
   </si>
   <si>
-    <t>{433.0: 0.991723641597697}</t>
-  </si>
-  <si>
-    <t>{434.0: 0.9806678383128296}</t>
+    <t>{433.0: 0.9916727009413469}</t>
+  </si>
+  <si>
+    <t>{434.0: 0.9826452800420721}</t>
   </si>
   <si>
     <t>{435.0: 1.0}</t>
@@ -814,7 +814,7 @@
     <t>{436.0: 1.0}</t>
   </si>
   <si>
-    <t>{162.0: 0.36078982682599525}</t>
+    <t>{162.0: 0.35664203145726736}</t>
   </si>
   <si>
     <t>{438.0: 1.0}</t>
@@ -826,34 +826,34 @@
     <t>{440.0: 1.0}</t>
   </si>
   <si>
-    <t>{441.0: 1.0, 782.0: 0.006252227047149218}</t>
+    <t>{441.0: 1.0, 782.0: 0.006393517532387943}</t>
   </si>
   <si>
     <t>{442.0: 1.0}</t>
   </si>
   <si>
-    <t>{443.0: 0.9623430962343096, 291.0: 0.06588822757407185}</t>
+    <t>{443.0: 0.9625164401578256, 291.0: 0.0661209283101997}</t>
   </si>
   <si>
     <t>{475.0: 1.0}</t>
   </si>
   <si>
-    <t>{476.0: 0.826947033667272, 595.0: 0.056396094506158886}</t>
-  </si>
-  <si>
-    <t>{477.0: 0.9224346297517029}</t>
+    <t>{476.0: 0.8253941069561146, 595.0: 0.05594944844679226}</t>
+  </si>
+  <si>
+    <t>{477.0: 0.9224175824175824}</t>
   </si>
   <si>
     <t>{478.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.9788281634662728, 942.0: 0.009007621136192695}</t>
+    <t>{479.0: 0.9794553272814143, 942.0: 0.009023772688965046}</t>
   </si>
   <si>
     <t>{480.0: 0.6303059046715674}</t>
   </si>
   <si>
-    <t>{481.0: 0.9938574938574939}</t>
+    <t>{481.0: 0.9938423645320197}</t>
   </si>
   <si>
     <t>{431.0: 0.1544172726317702}</t>
@@ -868,7 +868,7 @@
     <t>{485.0: 1.0}</t>
   </si>
   <si>
-    <t>{486.0: 0.5247579841756855, 837.0: 0.0070212990658312146}</t>
+    <t>{486.0: 0.5225689544852539, 837.0: 0.007175279452255245}</t>
   </si>
   <si>
     <t>{487.0: 1.0}</t>
@@ -877,49 +877,49 @@
     <t>{731.0: 0.40671487603305784}</t>
   </si>
   <si>
-    <t>{489.0: 1.0, 935.0: 0.005207010414020828}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9503030195239726, 503.0: 0.007690879292109704}</t>
-  </si>
-  <si>
-    <t>{491.0: 1.0, 492.0: 0.2332358287409201}</t>
-  </si>
-  <si>
-    <t>{492.0: 0.7605812621772771, 97.0: 0.0038666022232962784, 696.0: 0.0010047874462351652}</t>
-  </si>
-  <si>
-    <t>{493.0: 0.9920582395764395, 108.0: 0.008713043878725625, 144.0: 7.156676093227567e-05}</t>
+    <t>{489.0: 1.0, 935.0: 0.005155287312963662}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9501259727898774, 503.0: 0.007727197983891121}</t>
+  </si>
+  <si>
+    <t>{491.0: 1.0, 492.0: 0.233340311686442}</t>
+  </si>
+  <si>
+    <t>{492.0: 0.7605130266915621, 97.0: 0.0038548024413748794, 696.0: 0.0009761798221415134}</t>
+  </si>
+  <si>
+    <t>{493.0: 0.9920826918847592, 108.0: 0.008708355836935765, 144.0: 7.152665026293531e-05}</t>
   </si>
   <si>
     <t>{494.0: 0.9441460794844253}</t>
   </si>
   <si>
-    <t>{495.0: 0.9301775147928995}</t>
+    <t>{495.0: 0.9292226487523992}</t>
   </si>
   <si>
     <t>{496.0: 1.0}</t>
   </si>
   <si>
-    <t>{497.0: 0.7430485921510396, 321.0: 1.0}</t>
+    <t>{497.0: 0.7419683051052892, 321.0: 1.0}</t>
   </si>
   <si>
     <t>{498.0: 1.0}</t>
   </si>
   <si>
-    <t>{499.0: 0.9598576230966976}</t>
-  </si>
-  <si>
-    <t>{277.0: 0.19667349404315676, 180.0: 0.003936702213543456}</t>
+    <t>{499.0: 0.9608410493827161}</t>
+  </si>
+  <si>
+    <t>{277.0: 0.196161521917118, 180.0: 0.0064386407935346215}</t>
   </si>
   <si>
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.18577847454708085}</t>
-  </si>
-  <si>
-    <t>{503.0: 0.9436281620346821}</t>
+    <t>{534.0: 0.1748179263069942}</t>
+  </si>
+  <si>
+    <t>{503.0: 0.9433620872000411}</t>
   </si>
   <si>
     <t>{504.0: 1.0}</t>
@@ -931,7 +931,7 @@
     <t>{249.0: 0.035140616245606826, 702.0: 0.04400142825868001}</t>
   </si>
   <si>
-    <t>{507.0: 0.7996186117467582}</t>
+    <t>{507.0: 0.7984965866380302}</t>
   </si>
   <si>
     <t>{529.0: 1.0}</t>
@@ -949,13 +949,13 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.44192687246253753}</t>
-  </si>
-  <si>
-    <t>{535.0: 1.0, 71.0: 0.008575689783743476}</t>
-  </si>
-  <si>
-    <t>{604.0: 0.44850068491083017, 837.0: 0.019086155338294847}</t>
+    <t>{534.0: 0.4667568493776422}</t>
+  </si>
+  <si>
+    <t>{535.0: 1.0, 71.0: 0.008579955235016165}</t>
+  </si>
+  <si>
+    <t>{604.0: 0.4452228917993076, 837.0: 0.019443284366923764}</t>
   </si>
   <si>
     <t>{537.0: 1.0}</t>
@@ -964,7 +964,7 @@
     <t>{538.0: 1.0}</t>
   </si>
   <si>
-    <t>{173.0: 0.1514532243415077, 185.0: 0.07564743298500681, 404.0: 0.04851045232719062, 930.0: 0.0698397178475399}</t>
+    <t>{173.0: 0.1514532243415077, 185.0: 0.07564743298500681, 404.0: 0.04851045232719062, 930.0: 0.07985944737262418}</t>
   </si>
   <si>
     <t>{540.0: 1.0}</t>
@@ -973,7 +973,7 @@
     <t>{542.0: 0.7394957983193278}</t>
   </si>
   <si>
-    <t>{543.0: 0.6067210535157433}</t>
+    <t>{543.0: 0.6068619892475952}</t>
   </si>
   <si>
     <t>{544.0: 1.0}</t>
@@ -991,7 +991,7 @@
     <t>{561.0: 1.0}</t>
   </si>
   <si>
-    <t>{562.0: 0.6410523032130602, 211.0: 0.029372136890326056}</t>
+    <t>{562.0: 0.6410523032130602, 211.0: 0.02952729242855208}</t>
   </si>
   <si>
     <t>{563.0: 0.9855681658960348}</t>
@@ -1027,10 +1027,10 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.6583012640829924}</t>
-  </si>
-  <si>
-    <t>{581.0: 0.7153787299158378, 144.0: 0.024900137596324715, 303.0: 0.08622222222222223}</t>
+    <t>{580.0: 0.6573681889847305}</t>
+  </si>
+  <si>
+    <t>{581.0: 0.7155652648825779, 144.0: 0.024922120708030387, 303.0: 0.08637577916295637}</t>
   </si>
   <si>
     <t>{582.0: 1.0}</t>
@@ -1042,7 +1042,7 @@
     <t>{584.0: 1.0}</t>
   </si>
   <si>
-    <t>{585.0: 0.9875983464461928, 434.0: 0.01909241091548}</t>
+    <t>{585.0: 0.9874713727603395, 434.0: 0.01713728914072638}</t>
   </si>
   <si>
     <t>{586.0: 1.0}</t>
@@ -1051,7 +1051,7 @@
     <t>{587.0: 1.0}</t>
   </si>
   <si>
-    <t>{81.0: 0.21493016932394018, 172.0: 0.05718523401450231, 507.0: 0.2003813882532418}</t>
+    <t>{81.0: 0.21691405762754148, 172.0: 0.057871914609739825, 507.0: 0.20150341336196978}</t>
   </si>
   <si>
     <t>{589.0: 1.0}</t>
@@ -1066,22 +1066,22 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.702206136868215, 686.0: 0.00515177483979713}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.6538045095362747, 402.0: 0.0010326311441553077, 476.0: 1.5421205904453837e-05}</t>
-  </si>
-  <si>
-    <t>{276.0: 0.3344527137411508}</t>
-  </si>
-  <si>
-    <t>{597.0: 0.9973904244554508}</t>
-  </si>
-  <si>
-    <t>{598.0: 1.0, 599.0: 0.007402846990770414}</t>
-  </si>
-  <si>
-    <t>{599.0: 0.9900333791340854}</t>
+    <t>{593.0: 0.702523634351758, 686.0: 0.005100072579781049}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.6542051359187661, 402.0: 0.001036591686534674, 476.0: 1.545128162434429e-05}</t>
+  </si>
+  <si>
+    <t>{276.0: 0.33493910198145793}</t>
+  </si>
+  <si>
+    <t>{597.0: 0.9973572083490643}</t>
+  </si>
+  <si>
+    <t>{598.0: 1.0, 599.0: 0.007619574305512909}</t>
+  </si>
+  <si>
+    <t>{599.0: 0.9897425992634663}</t>
   </si>
   <si>
     <t>{600.0: 1.0}</t>
@@ -1096,13 +1096,13 @@
     <t>{603.0: 0.518114955053119, 617.0: 0.09849118574152624}</t>
   </si>
   <si>
-    <t>{604.0: 0.14485624628954288, 837.0: 0.006164424963931088, 922.0: 0.018158236057068743}</t>
+    <t>{604.0: 0.14655245526248833, 837.0: 0.006400077612415044, 922.0: 0.018158236057068743}</t>
   </si>
   <si>
     <t>{605.0: 1.0}</t>
   </si>
   <si>
-    <t>{606.0: 0.9985494106980961}</t>
+    <t>{606.0: 0.9985660512636674}</t>
   </si>
   <si>
     <t>{607.0: 1.0}</t>
@@ -1120,16 +1120,16 @@
     <t>{611.0: 1.0}</t>
   </si>
   <si>
-    <t>{612.0: 1.0, 613.0: 0.014371407148212946}</t>
-  </si>
-  <si>
-    <t>{613.0: 0.985628592851787}</t>
-  </si>
-  <si>
-    <t>{305.0: 0.20773276863173715, 615.0: 0.0059104663291704935, 698.0: 0.0025583125699411907, 832.0: 0.1194793119479312}</t>
-  </si>
-  <si>
-    <t>{615.0: 0.8418999243921436}</t>
+    <t>{612.0: 1.0, 613.0: 0.013974117504101099}</t>
+  </si>
+  <si>
+    <t>{613.0: 0.986025882495899}</t>
+  </si>
+  <si>
+    <t>{305.0: 0.20784635363269768, 615.0: 0.005625267681682604, 698.0: 0.0025780586288422277, 832.0: 0.12134088762983947}</t>
+  </si>
+  <si>
+    <t>{615.0: 0.8423040582090643}</t>
   </si>
   <si>
     <t>{616.0: 1.0}</t>
@@ -1138,10 +1138,10 @@
     <t>{617.0: 0.8099047619047619}</t>
   </si>
   <si>
-    <t>{246.0: 0.2834118967740765, 789.0: 0.004033396617945142}</t>
-  </si>
-  <si>
-    <t>{619.0: 1.0, 887.0: 0.00853814569167461, 861.0: 0.015839714675338297, 253.0: 2.6052162294964303e-05}</t>
+    <t>{246.0: 0.28320684486708353, 789.0: 0.004033038154791923}</t>
+  </si>
+  <si>
+    <t>{619.0: 1.0, 887.0: 0.008402432138969577, 861.0: 0.015856347789562113, 253.0: 2.607951939072716e-05}</t>
   </si>
   <si>
     <t>{620.0: 1.0, 785.0: 0.005487623060981204}</t>
@@ -1153,7 +1153,7 @@
     <t>{622.0: 1.0}</t>
   </si>
   <si>
-    <t>{623.0: 0.9992374561537288}</t>
+    <t>{623.0: 0.9992354740061162}</t>
   </si>
   <si>
     <t>{624.0: 1.0}</t>
@@ -1171,7 +1171,7 @@
     <t>{628.0: 1.0}</t>
   </si>
   <si>
-    <t>{629.0: 0.3460716828863043, 209.0: 0.0067064083457526085, 788.0: 0.513246688327918}</t>
+    <t>{629.0: 0.3460716828863043, 209.0: 0.006782215523737754, 788.0: 0.5105034182722188}</t>
   </si>
   <si>
     <t>{603.0: 0.48188504494688095, 617.0: 0.09160405235371184}</t>
@@ -1180,13 +1180,13 @@
     <t>{629.0: 0.6539283171136957}</t>
   </si>
   <si>
-    <t>{251.0: 0.5533106669620003}</t>
+    <t>{251.0: 0.535961341134746}</t>
   </si>
   <si>
     <t>{226.0: 0.06961119065976429, 729.0: 0.053167325649869604}</t>
   </si>
   <si>
-    <t>{634.0: 0.8040555944472704}</t>
+    <t>{634.0: 0.8100037610480787}</t>
   </si>
   <si>
     <t>{635.0: 1.0}</t>
@@ -1195,7 +1195,7 @@
     <t>{636.0: 0.8633610900832702}</t>
   </si>
   <si>
-    <t>{702.0: 0.0008999006753813592}</t>
+    <t>{702.0: 0.0008181632517291384}</t>
   </si>
   <si>
     <t>{678.0: 1.0}</t>
@@ -1207,13 +1207,13 @@
     <t>{680.0: 0.9970428782651553}</t>
   </si>
   <si>
-    <t>{681.0: 0.8661946752127402}</t>
+    <t>{681.0: 0.8661825512520718}</t>
   </si>
   <si>
     <t>{682.0: 1.0}</t>
   </si>
   <si>
-    <t>{615.0: 0.14134058606773117, 698.0: 0.02529103651019675, 751.0: 0.18454837230628152}</t>
+    <t>{615.0: 0.14136539136539136, 698.0: 0.025307789715560587, 751.0: 0.18454837230628152}</t>
   </si>
   <si>
     <t>{684.0: 1.0}</t>
@@ -1222,10 +1222,10 @@
     <t>{685.0: 1.0}</t>
   </si>
   <si>
-    <t>{686.0: 0.5188192558492247}</t>
-  </si>
-  <si>
-    <t>{687.0: 1.0, 534.0: 0.047630701016118486, 174.0: 0.006582278481012658}</t>
+    <t>{686.0: 0.5191522157073675}</t>
+  </si>
+  <si>
+    <t>{687.0: 1.0, 534.0: 0.04492051246261242, 174.0: 0.006545820745216516}</t>
   </si>
   <si>
     <t>{688.0: 1.0}</t>
@@ -1246,19 +1246,19 @@
     <t>{693.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.434887333236689, 165.0: 0.03846626520830773, 433.0: 0.008276358402302987}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.1036072981944932, 857.0: 0.0965531899865637}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9960792883677937, 492.0: 0.006164862054244833}</t>
+    <t>{86.0: 0.4367505323639863, 165.0: 0.03858956972013315, 433.0: 0.00832729905865315}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.10486712104823186, 857.0: 0.09662019999081836}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.996028811858391, 492.0: 0.006128234330951448}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.972150650919862}</t>
+    <t>{698.0: 0.9721141516555971}</t>
   </si>
   <si>
     <t>{700.0: 1.0}</t>
@@ -1267,13 +1267,13 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.6185531570853442}</t>
+    <t>{702.0: 0.6185314183072287}</t>
   </si>
   <si>
     <t>{703.0: 1.0}</t>
   </si>
   <si>
-    <t>{704.0: 1.0, 481.0: 0.006142506142506142}</t>
+    <t>{704.0: 1.0, 481.0: 0.006157635467980296}</t>
   </si>
   <si>
     <t>{705.0: 1.0}</t>
@@ -1282,28 +1282,28 @@
     <t>{706.0: 1.0}</t>
   </si>
   <si>
-    <t>{707.0: 0.9947004269100544}</t>
-  </si>
-  <si>
-    <t>{580.0: 0.21364068587520363}</t>
+    <t>{707.0: 0.9945071711931645}</t>
+  </si>
+  <si>
+    <t>{580.0: 0.21430295186114953}</t>
   </si>
   <si>
     <t>{729.0: 0.8205940003572835}</t>
   </si>
   <si>
-    <t>{730.0: 0.7001174626595719, 289.0: 0.16219653436858122}</t>
-  </si>
-  <si>
-    <t>{731.0: 0.5093056179396515}</t>
+    <t>{730.0: 0.6993717955083192, 289.0: 0.16202378531692033}</t>
+  </si>
+  <si>
+    <t>{731.0: 0.5242772338343619}</t>
   </si>
   <si>
     <t>{732.0: 1.0}</t>
   </si>
   <si>
-    <t>{733.0: 0.9184447605500237, 147.0: 0.07637003991329491}</t>
-  </si>
-  <si>
-    <t>{888.0: 0.29224517229790864, 73.0: 0.00143000143000143}</t>
+    <t>{733.0: 0.923876963930073, 147.0: 0.08227627701021362}</t>
+  </si>
+  <si>
+    <t>{888.0: 0.2922406305175582, 73.0: 0.0014347202295552368}</t>
   </si>
   <si>
     <t>{735.0: 0.6435926773455377}</t>
@@ -1312,25 +1312,25 @@
     <t>{736.0: 1.0}</t>
   </si>
   <si>
-    <t>{737.0: 1.0, 223.0: 0.019194756554307114, 428.0: 0.0037142610348103997}</t>
-  </si>
-  <si>
-    <t>{738.0: 0.9961277831558567}</t>
+    <t>{737.0: 1.0, 223.0: 0.01906090190609019, 428.0: 0.0037142610348103997}</t>
+  </si>
+  <si>
+    <t>{738.0: 0.9961240310077519}</t>
   </si>
   <si>
     <t>{739.0: 1.0}</t>
   </si>
   <si>
-    <t>{740.0: 1.0, 789.0: 0.1669884875968601, 246.0: 0.009385809539203704}</t>
-  </si>
-  <si>
-    <t>{741.0: 0.9931837546151662, 90.0: 0.033413245796262994, 789.0: 0.001339605819551074, 246.0: 0.0046834341753414985}</t>
+    <t>{740.0: 1.0, 789.0: 0.1669737704553179, 246.0: 0.00937818612090443}</t>
+  </si>
+  <si>
+    <t>{741.0: 0.9931837546151662, 90.0: 0.033413245796262994, 789.0: 0.0013426240374213674, 246.0: 0.004680023247519948}</t>
   </si>
   <si>
     <t>{743.0: 1.0}</t>
   </si>
   <si>
-    <t>{757.0: 0.24067164179104478}</t>
+    <t>{757.0: 0.2434881087202718}</t>
   </si>
   <si>
     <t>{746.0: 1.0, 691.0: 0.014129443938012761}</t>
@@ -1342,7 +1342,7 @@
     <t>{748.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.14699280494761358, 476.0: 0.15811907053485494, 595.0: 0.01078339685864043, 534.0: 0.051506884489296745}</t>
+    <t>{298.0: 0.14877215057145854, 476.0: 0.15970004166088042, 595.0: 0.01082528839563314, 534.0: 0.054145179905543954}</t>
   </si>
   <si>
     <t>{750.0: 1.0}</t>
@@ -1351,7 +1351,7 @@
     <t>{751.0: 0.8154516276937185}</t>
   </si>
   <si>
-    <t>{580.0: 0.12805805004180382}</t>
+    <t>{580.0: 0.12832885915412007}</t>
   </si>
   <si>
     <t>{753.0: 1.0}</t>
@@ -1366,7 +1366,7 @@
     <t>{756.0: 1.0}</t>
   </si>
   <si>
-    <t>{757.0: 0.27504874360130027, 634.0: 0.0029425639321034596}</t>
+    <t>{757.0: 0.19016497813652725, 634.0: 0.002853381809064126}</t>
   </si>
   <si>
     <t>{758.0: 0.7042549992482333}</t>
@@ -1375,19 +1375,19 @@
     <t>{759.0: 1.0}</t>
   </si>
   <si>
-    <t>{760.0: 1.0, 761.0: 0.05816302294063936}</t>
-  </si>
-  <si>
-    <t>{761.0: 0.9418369770593606}</t>
-  </si>
-  <si>
-    <t>{141.0: 0.059558272455346666, 762.0: 0.0615630433760985}</t>
+    <t>{760.0: 1.0, 761.0: 0.05807537591257333}</t>
+  </si>
+  <si>
+    <t>{761.0: 0.9419246240874267}</t>
+  </si>
+  <si>
+    <t>{141.0: 0.059563655890458374, 762.0: 0.0615630433760985}</t>
   </si>
   <si>
     <t>{763.0: 1.0}</t>
   </si>
   <si>
-    <t>{764.0: 0.8271316181160961}</t>
+    <t>{764.0: 0.8273298785149945}</t>
   </si>
   <si>
     <t>{765.0: 1.0}</t>
@@ -1396,7 +1396,7 @@
     <t>{766.0: 1.0}</t>
   </si>
   <si>
-    <t>{767.0: 0.9924251679902261}</t>
+    <t>{767.0: 0.9930648769574945}</t>
   </si>
   <si>
     <t>{768.0: 1.0}</t>
@@ -1405,16 +1405,16 @@
     <t>{769.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 1.0, 410.0: 0.0011892711866379729, 729.0: 0.0005296867481815251}</t>
+    <t>{770.0: 1.0, 410.0: 0.001187460658027995, 729.0: 0.0005288803610238408}</t>
   </si>
   <si>
     <t>{771.0: 1.0}</t>
   </si>
   <si>
-    <t>{772.0: 1.0, 493.0: 0.007941760423560556, 108.0: 6.975085159753668e-05, 144.0: 5.729160314791915e-07}</t>
-  </si>
-  <si>
-    <t>{773.0: 1.0, 757.0: 0.36605151781953466}</t>
+    <t>{772.0: 1.0, 493.0: 0.007917308115240818, 108.0: 6.949696522493627e-05, 144.0: 5.708178695335117e-07}</t>
+  </si>
+  <si>
+    <t>{773.0: 1.0, 757.0: 0.42066087642038213}</t>
   </si>
   <si>
     <t>{775.0: 1.0}</t>
@@ -1426,7 +1426,7 @@
     <t>{777.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 0.9994031988541417, 171.0: 0.01740033043861241, 184.0: 0.0020208824520040417, 593.0: 0.0009677776021886674}</t>
+    <t>{778.0: 0.9994188749418875, 171.0: 0.017201854323422337, 184.0: 0.0020373514431239388, 593.0: 0.0009684790495434398}</t>
   </si>
   <si>
     <t>{779.0: 1.0}</t>
@@ -1435,13 +1435,13 @@
     <t>{780.0: 0.8333333333333334}</t>
   </si>
   <si>
-    <t>{781.0: 1.0, 81.0: 0.0003984644402254381, 172.0: 8.39876514179992e-07}</t>
-  </si>
-  <si>
-    <t>{782.0: 0.7409374650734597, 168.0: 0.001507017048130357, 930.0: 0.00012236563107632153}</t>
-  </si>
-  <si>
-    <t>{783.0: 0.9996818326439707}</t>
+    <t>{781.0: 1.0, 81.0: 0.0003929158868795293, 172.0: 8.253494257144237e-07}</t>
+  </si>
+  <si>
+    <t>{782.0: 0.7360736129578894, 168.0: 0.0015194681861348527, 930.0: 0.00012124918504206914}</t>
+  </si>
+  <si>
+    <t>{783.0: 0.99967958987504}</t>
   </si>
   <si>
     <t>{784.0: 1.0}</t>
@@ -1453,37 +1453,37 @@
     <t>{204.0: 0.2695116861435726}</t>
   </si>
   <si>
-    <t>{277.0: 0.0678019663035204, 180.0: 0.0013571536526986046}</t>
-  </si>
-  <si>
-    <t>{788.0: -0.04411397150712322}</t>
-  </si>
-  <si>
-    <t>{789.0: 0.824552806641099, 246.0: 0.04634508467932692}</t>
+    <t>{277.0: 0.06831393842955914, 180.0: 0.002242279252530558}</t>
+  </si>
+  <si>
+    <t>{788.0: -0.03853325046612803}</t>
+  </si>
+  <si>
+    <t>{789.0: 0.824558604706184, 246.0: 0.0463118491092418}</t>
   </si>
   <si>
     <t>{831.0: 1.0}</t>
   </si>
   <si>
-    <t>{832.0: 0.8805206880520688}</t>
+    <t>{832.0: 0.8786591123701605}</t>
   </si>
   <si>
     <t>{833.0: 1.0}</t>
   </si>
   <si>
-    <t>{834.0: 0.5258853831294269}</t>
-  </si>
-  <si>
-    <t>{835.0: 0.9951693718708581, 836.0: 0.01623484783609078}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9837651521639091, 835.0: 0.0048306281291418725}</t>
-  </si>
-  <si>
-    <t>{837.0: 0.9656272183435438, 486.0: 0.3182247403210576, 604.0: 0.406643068799627}</t>
-  </si>
-  <si>
-    <t>{838.0: 1.0, 19.0: 0.13507462686567165, 423.0: 0.0036780614452617912}</t>
+    <t>{834.0: 0.5258548522119905}</t>
+  </si>
+  <si>
+    <t>{835.0: 0.9949819321325729, 836.0: 0.015424630556912554}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9845753694430874, 835.0: 0.005018067867427023}</t>
+  </si>
+  <si>
+    <t>{837.0: 0.9647953317856802, 486.0: 0.3182247403210576, 604.0: 0.40822465293820404}</t>
+  </si>
+  <si>
+    <t>{838.0: 1.0, 19.0: 0.13507462686567165, 423.0: 0.0036653730056058647}</t>
   </si>
   <si>
     <t>{839.0: 1.0}</t>
@@ -1498,10 +1498,10 @@
     <t>{842.0: 1.0}</t>
   </si>
   <si>
-    <t>{264.0: 0.3164425011126853}</t>
-  </si>
-  <si>
-    <t>{227.0: 0.33900173438483133, 686.0: 0.016437816720647872}</t>
+    <t>{264.0: 0.3175020990619109}</t>
+  </si>
+  <si>
+    <t>{227.0: 0.37937347157157514, 686.0: 0.01637923011790771}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1513,37 +1513,37 @@
     <t>{847.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 1.0, 707.0: 0.005299573089945532}</t>
+    <t>{848.0: 1.0, 707.0: 0.00549282880683552}</t>
   </si>
   <si>
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{180.0: 0.025012879793628044, 277.0: 0.06388127608361341}</t>
-  </si>
-  <si>
-    <t>{851.0: 1.0, 7.0: 0.014550392860607237}</t>
-  </si>
-  <si>
-    <t>{852.0: 1.0, 922.0: 0.0020296183947407283}</t>
-  </si>
-  <si>
-    <t>{853.0: 1.0, 91.0: 0.00033310405391959646, 92.0: 1.6074545008734487e-07, 202.0: 0.07833958913336612, 680.0: 0.002957121734844751}</t>
-  </si>
-  <si>
-    <t>{854.0: 1.0, 976.0: 0.060204809135467184}</t>
+    <t>{180.0: 0.006014103002808445, 277.0: 0.064011902744831}</t>
+  </si>
+  <si>
+    <t>{851.0: 1.0, 7.0: 0.014697236919459141}</t>
+  </si>
+  <si>
+    <t>{852.0: 1.0, 922.0: 0.002098753927878973}</t>
+  </si>
+  <si>
+    <t>{853.0: 1.0, 91.0: 0.00032893191109440345, 92.0: 1.4919327550235536e-07, 202.0: 0.07827032978796614, 680.0: 0.002957121734844751}</t>
+  </si>
+  <si>
+    <t>{854.0: 1.0, 976.0: 0.06009360873970052}</t>
   </si>
   <si>
     <t>{855.0: 1.0}</t>
   </si>
   <si>
-    <t>{146.0: 0.30546964024092466}</t>
-  </si>
-  <si>
-    <t>{857.0: 0.8985835125186872, 298.0: 0.001903546161053681}</t>
-  </si>
-  <si>
-    <t>{858.0: 1.0, 543.0: 0.011648711492656144}</t>
+    <t>{146.0: 0.2650049428046886}</t>
+  </si>
+  <si>
+    <t>{857.0: 0.8985182985681253, 298.0: 0.001920930441631163}</t>
+  </si>
+  <si>
+    <t>{858.0: 1.0, 543.0: 0.011652059107576513}</t>
   </si>
   <si>
     <t>{859.0: 1.0}</t>
@@ -1552,13 +1552,13 @@
     <t>{860.0: 1.0}</t>
   </si>
   <si>
-    <t>{861.0: 0.9841602853246617, 253.0: 0.0016186846798102988, 490.0: 0.04730928444707274}</t>
+    <t>{861.0: 0.9841436522104379, 253.0: 0.0016186573227145358, 490.0: 0.04747774480712166}</t>
   </si>
   <si>
     <t>{780.0: 0.16666666666666666}</t>
   </si>
   <si>
-    <t>{863.0: 1.0, 10.0: 0.010316428261811877}</t>
+    <t>{863.0: 1.0, 10.0: 0.010404826440500132}</t>
   </si>
   <si>
     <t>{885.0: 1.0}</t>
@@ -1567,10 +1567,10 @@
     <t>{886.0: 1.0}</t>
   </si>
   <si>
-    <t>{887.0: 0.7855343805393834, 834.0: 0.0003853383375844337}</t>
-  </si>
-  <si>
-    <t>{888.0: 0.7077548277020914}</t>
+    <t>{887.0: 0.784559191681481, 834.0: 0.0004049256727081552}</t>
+  </si>
+  <si>
+    <t>{888.0: 0.7077593694824418}</t>
   </si>
   <si>
     <t>{889.0: 1.0}</t>
@@ -1585,7 +1585,7 @@
     <t>{892.0: 1.0}</t>
   </si>
   <si>
-    <t>{893.0: 0.9978947368421053}</t>
+    <t>{893.0: 0.9977452085682075}</t>
   </si>
   <si>
     <t>{894.0: 1.0}</t>
@@ -1594,25 +1594,25 @@
     <t>{895.0: 1.0}</t>
   </si>
   <si>
-    <t>{896.0: 1.0, 897.0: 0.02499643873816452}</t>
-  </si>
-  <si>
-    <t>{897.0: 0.7138830138447109}</t>
-  </si>
-  <si>
-    <t>{905.0: 1.0, 499.0: 0.04014237690330235}</t>
+    <t>{896.0: 1.0, 897.0: 0.024944406380148505}</t>
+  </si>
+  <si>
+    <t>{897.0: 0.7146079196533135}</t>
+  </si>
+  <si>
+    <t>{905.0: 1.0, 499.0: 0.03915895061728395}</t>
   </si>
   <si>
     <t>{906.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.044733262807919, 930.0: 0.09603434816167061, 404.0: 0.009275575382602387}</t>
-  </si>
-  <si>
-    <t>{788.0: 0.5308672831792052}</t>
-  </si>
-  <si>
-    <t>{909.0: 0.41649529506959976}</t>
+    <t>{782.0: 0.044733262807919, 930.0: 0.09529245920638413, 404.0: 0.009293093466910127}</t>
+  </si>
+  <si>
+    <t>{788.0: 0.5280298321939093}</t>
+  </si>
+  <si>
+    <t>{909.0: 0.4137347020225024}</t>
   </si>
   <si>
     <t>{910.0: 0.8165218347816522}</t>
@@ -1627,28 +1627,28 @@
     <t>{914.0: 0.9747840298855942}</t>
   </si>
   <si>
-    <t>{915.0: 1.0, 171.0: 0.23926214182338407, 420.0: 0.13447613311335305}</t>
-  </si>
-  <si>
-    <t>{534.0: 0.22372587767191515}</t>
-  </si>
-  <si>
-    <t>{917.0: 0.7979505825057535}</t>
+    <t>{915.0: 1.0, 171.0: 0.2366124934523391, 420.0: 0.135890820516969}</t>
+  </si>
+  <si>
+    <t>{534.0: 0.21235609808836542}</t>
+  </si>
+  <si>
+    <t>{917.0: 0.7976370566050043}</t>
   </si>
   <si>
     <t>{918.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.2231709358781182, 297.0: 0.0009905894006934125}</t>
+    <t>{298.0: 0.2231833910034602, 297.0: 0.0009962226557635632}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
   </si>
   <si>
-    <t>{921.0: 1.0, 686.0: 0.06491606204672862}</t>
-  </si>
-  <si>
-    <t>{922.0: 0.914889522552359}</t>
+    <t>{921.0: 1.0, 686.0: 0.06468367522224322}</t>
+  </si>
+  <si>
+    <t>{922.0: 0.9160253682142534}</t>
   </si>
   <si>
     <t>{923.0: 1.0}</t>
@@ -1657,7 +1657,7 @@
     <t>{924.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.22966962560285759, 762.0: 0.2374004574051698}</t>
+    <t>{141.0: 0.22969038529711314, 762.0: 0.2374004574051698}</t>
   </si>
   <si>
     <t>{926.0: 1.0}</t>
@@ -1666,13 +1666,13 @@
     <t>{927.0: 1.0}</t>
   </si>
   <si>
-    <t>{3.0: 0.2986245474636466, 418.0: 0.12031725784494546, 922.0: 0.0649226229958314}</t>
-  </si>
-  <si>
-    <t>{929.0: 0.9982030043520989, 930.0: 0.5023170809598512}</t>
-  </si>
-  <si>
-    <t>{930.0: 0.3316864873998619, 929.0: 0.0017969956479011652}</t>
+    <t>{3.0: 0.3050371432060981, 418.0: 0.12063254298053716, 922.0: 0.06371764180079881}</t>
+  </si>
+  <si>
+    <t>{929.0: 0.9981531979973741, 930.0: 0.5060555929187953}</t>
+  </si>
+  <si>
+    <t>{930.0: 0.3186712513171542, 929.0: 0.0018468020026259217}</t>
   </si>
   <si>
     <t>{931.0: 0.9138912855910267}</t>
@@ -1681,46 +1681,46 @@
     <t>{932.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.22847970492944453, 702.0: 0.19452922961350527}</t>
-  </si>
-  <si>
-    <t>{934.0: 1.0, 5.0: 0.01186744290192566}</t>
-  </si>
-  <si>
-    <t>{935.0: 0.9947929895859792}</t>
+    <t>{249.0: 0.22912593073271295, 702.0: 0.19453117352956792}</t>
+  </si>
+  <si>
+    <t>{934.0: 1.0, 5.0: 0.01182244033013607}</t>
+  </si>
+  <si>
+    <t>{935.0: 0.9948447126870363}</t>
   </si>
   <si>
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.24877521526153046, 171.0: 0.0009896642317907222, 85.0: 0.0035962086312661835}</t>
-  </si>
-  <si>
-    <t>{910.0: 0.13926168166609582, 497.0: 0.024895113952272806, 731.0: 0.06374124801679136}</t>
+    <t>{593.0: 0.24857342310263736, 171.0: 0.000986460766072281, 85.0: 0.003634651862191165}</t>
+  </si>
+  <si>
+    <t>{910.0: 0.13778294444063413, 497.0: 0.02472433810645906, 731.0: 0.05182148121433188}</t>
   </si>
   <si>
     <t>{13.0: 0.27403661993411477}</t>
   </si>
   <si>
-    <t>{785.0: 0.13213207501312954, 206.0: 0.1472611464968153}</t>
+    <t>{785.0: 0.1284154307396763, 206.0: 0.1472611464968153}</t>
   </si>
   <si>
     <t>{941.0: 1.0}</t>
   </si>
   <si>
-    <t>{942.0: 0.99079754601227}</t>
-  </si>
-  <si>
-    <t>{943.0: 1.0, 634.0: 0.19300184162062614}</t>
+    <t>{942.0: 0.9907869481765835}</t>
+  </si>
+  <si>
+    <t>{943.0: 1.0, 634.0: 0.18714285714285714}</t>
   </si>
   <si>
     <t>{944.0: 1.0}</t>
   </si>
   <si>
-    <t>{971.0: 1.0, 975.0: 0.00212017325621649, 152.0: 0.0004351136734471881}</t>
-  </si>
-  <si>
-    <t>{139.0: 0.32523553473386324, 615.0: 0.01084902321095488}</t>
+    <t>{971.0: 1.0, 975.0: 0.0021634278806931177, 152.0: 0.0004267121826328142}</t>
+  </si>
+  <si>
+    <t>{139.0: 0.32523553473386324, 615.0: 0.010705282743861748}</t>
   </si>
   <si>
     <t>{973.0: 0.9165003326679974, 494.0: 0.051190136733336056}</t>
@@ -1729,16 +1729,16 @@
     <t>{545.0: 0.2950640850831743}</t>
   </si>
   <si>
-    <t>{975.0: 0.9970583576792547}</t>
-  </si>
-  <si>
-    <t>{976.0: 0.9397951908645329}</t>
+    <t>{975.0: 0.9970151317640227}</t>
+  </si>
+  <si>
+    <t>{976.0: 0.9399063912602995}</t>
   </si>
   <si>
     <t>{977.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.20807704507147204}</t>
+    <t>{782.0: 0.21279960670180362}</t>
   </si>
   <si>
     <t>{979.0: 1.0}</t>
@@ -1750,19 +1750,19 @@
     <t>{981.0: 1.0, 431.0: 0.14127371782829232}</t>
   </si>
   <si>
-    <t>{989.0: 1.0, 249.0: 0.005706963499308707, 495.0: 0.06982248520710059}</t>
-  </si>
-  <si>
-    <t>{990.0: 1.0, 599.0: 0.0025637738751442124}</t>
-  </si>
-  <si>
-    <t>{497.0: 0.23205629389668767, 910.0: 0.044216483552252, 731.0: 0.020238258010499322}</t>
-  </si>
-  <si>
-    <t>{410.0: 0.2809923467338265, 729.0: 0.12515053259307127}</t>
-  </si>
-  <si>
-    <t>{486.0: 0.8813719916619287, 837.0: 0.1186280083380709}</t>
+    <t>{989.0: 1.0, 249.0: 0.005742824131710109, 495.0: 0.07077735124760076}</t>
+  </si>
+  <si>
+    <t>{990.0: 1.0, 599.0: 0.002637826431020839}</t>
+  </si>
+  <si>
+    <t>{497.0: 0.2333073567882517, 910.0: 0.04569522077771368, 731.0: 0.017186408918248394}</t>
+  </si>
+  <si>
+    <t>{410.0: 0.28099637207698824, 729.0: 0.12515232543136887}</t>
+  </si>
+  <si>
+    <t>{486.0: 0.881371991661929, 837.0: 0.1186280083380709}</t>
   </si>
   <si>
     <t>{3.0: 1.0}</t>
@@ -1780,7 +1780,7 @@
     <t>{13.0: 1.0}</t>
   </si>
   <si>
-    <t>{14.0: 0.9919299714123918, 178.0: 0.0006410880191330579, 623.0: 0.0016149870801033589, 696.0: 0.005721431161519682, 492.0: 9.25223268524091e-05}</t>
+    <t>{14.0: 0.9919351812436294, 178.0: 0.000640674146945109, 623.0: 0.0016139444803098773, 696.0: 0.0057179007368205565, 492.0: 9.229939229500008e-05}</t>
   </si>
   <si>
     <t>{17.0: 1.0}</t>
@@ -1789,16 +1789,16 @@
     <t>{19.0: 0.6241540864133264, 636.0: 0.37584591358667363}</t>
   </si>
   <si>
-    <t>{34.0: 0.8740791396589427, 78.0: 0.1259208603410571}</t>
+    <t>{34.0: 0.8740791396589428, 78.0: 0.1259208603410571}</t>
   </si>
   <si>
     <t>{44.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.8535479946204908, 90.0: 0.06163253957874768, 246.0: 0.05698406038140835, 681.0: 0.010181063660729604, 741.0: 0.00655999855195493, 789.0: 0.011094343206668732}</t>
-  </si>
-  <si>
-    <t>{48.0: 0.9182990922121357, 443.0: 0.07303779428966833, 291.0: 0.008663113498195959}</t>
+    <t>{46.0: 0.8535479946204907, 90.0: 0.06163253957874768, 246.0: 0.05698330500849371, 681.0: 0.010181063660729604, 741.0: 0.006559998551954927, 789.0: 0.011095098579583398}</t>
+  </si>
+  <si>
+    <t>{48.0: 0.9182990922121357, 443.0: 0.07303779428966835, 291.0: 0.008663113498195955}</t>
   </si>
   <si>
     <t>{834.0: 1.0}</t>
@@ -1813,19 +1813,19 @@
     <t>{73.0: 1.0}</t>
   </si>
   <si>
-    <t>{75.0: 0.8852873563218391, 917.0: 0.1147126436781609}</t>
-  </si>
-  <si>
-    <t>{77.0: 0.9994776704100288, 85.0: 0.0005223295899712719}</t>
+    <t>{75.0: 0.8878903617164682, 917.0: 0.11210963828353179}</t>
+  </si>
+  <si>
+    <t>{77.0: 0.9994692848613506, 85.0: 0.0005307151386493299}</t>
   </si>
   <si>
     <t>{78.0: 1.0}</t>
   </si>
   <si>
-    <t>{764.0: 0.9332690453230472, 757.0: 0.06673095467695275}</t>
-  </si>
-  <si>
-    <t>{81.0: 0.9985382678699432, 172.0: 0.0014617321300571377}</t>
+    <t>{764.0: 0.9332690453230471, 757.0: 0.06673095467695275}</t>
+  </si>
+  <si>
+    <t>{81.0: 0.9985370734491797, 172.0: 0.001462926550820381}</t>
   </si>
   <si>
     <t>{85.0: 0.9759786476868327, 178.0: 0.023838892213243146, 14.0: 0.00018246009992411367}</t>
@@ -1837,7 +1837,7 @@
     <t>{90.0: 1.0}</t>
   </si>
   <si>
-    <t>{91.0: 0.9996993636987667, 92.0: 0.00030063630123321894}</t>
+    <t>{91.0: 0.9996993636987666, 92.0: 0.00030063630123321894}</t>
   </si>
   <si>
     <t>{92.0: 1.0}</t>
@@ -1852,13 +1852,13 @@
     <t>{102.0: 1.0}</t>
   </si>
   <si>
-    <t>{543.0: 0.6707457469502988, 86.0: 0.32925425304970135}</t>
-  </si>
-  <si>
-    <t>{108.0: 0.9879188511511287, 144.0: 0.012081148848871666}</t>
-  </si>
-  <si>
-    <t>{109.0: 0.9924710641645131, 110.0: 0.007528935835487133}</t>
+    <t>{543.0: 0.6707439927095041, 86.0: 0.3292560072904959}</t>
+  </si>
+  <si>
+    <t>{108.0: 0.987918851151128, 144.0: 0.012081148848871666}</t>
+  </si>
+  <si>
+    <t>{109.0: 0.9924710641645129, 110.0: 0.007528935835487131}</t>
   </si>
   <si>
     <t>{110.0: 1.0}</t>
@@ -1870,10 +1870,10 @@
     <t>{141.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.9420988600009005, 762.0: 0.05790113999909881}</t>
-  </si>
-  <si>
-    <t>{142.0: 0.9847917376007264, 44.0: 0.015208262399273635}</t>
+    <t>{141.0: 0.9421837681943129, 762.0: 0.05781623180568698}</t>
+  </si>
+  <si>
+    <t>{142.0: 0.9847119224187108, 44.0: 0.015288077581289217}</t>
   </si>
   <si>
     <t>{144.0: 1.0}</t>
@@ -1882,19 +1882,19 @@
     <t>{146.0: 1.0}</t>
   </si>
   <si>
-    <t>{147.0: 0.8973738751910919, 764.0: 0.03864909405108203, 733.0: 0.06397703075782603}</t>
-  </si>
-  <si>
-    <t>{152.0: 0.9990500316656115, 975.0: 0.0009499683343888536}</t>
+    <t>{147.0: 0.8973738751910918, 764.0: 0.03864909405108203, 733.0: 0.06397703075782603}</t>
+  </si>
+  <si>
+    <t>{152.0: 0.9990500316656111, 975.0: 0.0009499683343888536}</t>
   </si>
   <si>
     <t>{162.0: 1.0}</t>
   </si>
   <si>
-    <t>{165.0: 0.9867533423279773, 914.0: 0.013246657672022568}</t>
-  </si>
-  <si>
-    <t>{166.0: 0.9992304732589455, 893.0: 0.0007695267410542517}</t>
+    <t>{165.0: 0.9867533423279775, 914.0: 0.013246657672022568}</t>
+  </si>
+  <si>
+    <t>{166.0: 0.9992208804051421, 893.0: 0.0007791195948578107}</t>
   </si>
   <si>
     <t>{168.0: 1.0}</t>
@@ -1906,31 +1906,31 @@
     <t>{172.0: 0.9946275071633236, 81.0: 0.0053724928366762174}</t>
   </si>
   <si>
-    <t>{173.0: 0.9936051159072742, 404.0: 0.006394884092725819}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.5192117150704537, 534.0: 0.48078828492954623}</t>
+    <t>{173.0: 0.9936119244077721, 404.0: 0.006388075592227841}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.5213493935712422, 534.0: 0.47865060642875795}</t>
   </si>
   <si>
     <t>{562.0: 1.0}</t>
   </si>
   <si>
-    <t>{178.0: 0.9924042536179739, 14.0: 0.007595746382026065}</t>
-  </si>
-  <si>
-    <t>{179.0: 0.8753919313760835, 180.0: 0.12357476956308819, 410.0: 0.0010243994567968985, 277.0: 8.899604031184353e-06}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.9744761105291381, 410.0: 0.025304057170381308, 277.0: 0.00021983230048070306}</t>
-  </si>
-  <si>
-    <t>{182.0: 0.9979967004477965, 277.0: 0.0019306801921326867, 180.0: 7.261936007094297e-05}</t>
+    <t>{178.0: 0.9924042536179739, 14.0: 0.007595746382026064}</t>
+  </si>
+  <si>
+    <t>{179.0: 0.8769069332309039, 180.0: 0.12209555940829318, 410.0: 0.000982379733799608, 277.0: 1.5127627003018576e-05}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.9743062866453892, 410.0: 0.025304057170381304, 277.0: 0.00038965618422933594}</t>
+  </si>
+  <si>
+    <t>{182.0: 0.9979888796876847, 277.0: 0.0019382174506610637, 180.0: 7.290286165408993e-05}</t>
   </si>
   <si>
     <t>{182.0: 1.0}</t>
   </si>
   <si>
-    <t>{184.0: 0.6198636811651962, 171.0: 0.16743580614272274, 593.0: 0.21101587657348267, 778.0: 0.0016846361185983826}</t>
+    <t>{184.0: 0.619581107396017, 171.0: 0.16755953700304693, 593.0: 0.21116098603571876, 778.0: 0.0016983695652173913}</t>
   </si>
   <si>
     <t>{185.0: 1.0}</t>
@@ -1942,13 +1942,13 @@
     <t>{203.0: 1.0}</t>
   </si>
   <si>
-    <t>{204.0: 0.9946148092744952, 857.0: 0.0053851907255048626}</t>
+    <t>{204.0: 0.9946682464454976, 857.0: 0.005331753554502371}</t>
   </si>
   <si>
     <t>{206.0: 0.8527388535031846, 785.0: 0.1472611464968153}</t>
   </si>
   <si>
-    <t>{207.0: 0.46230007616146235, 477.0: 0.5376999238385377}</t>
+    <t>{207.0: 0.44800625488663026, 477.0: 0.5519937451133698}</t>
   </si>
   <si>
     <t>{209.0: 1.0}</t>
@@ -1969,16 +1969,16 @@
     <t>{217.0: 1.0}</t>
   </si>
   <si>
-    <t>{218.0: 0.7815333823680913, 409.0: 0.2184666176319087}</t>
+    <t>{218.0: 0.7813754377265826, 409.0: 0.21862456227341748}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
   </si>
   <si>
-    <t>{221.0: 0.9001536098310291, 999.0: 0.09984639016897079}</t>
-  </si>
-  <si>
-    <t>{222.0: 0.8416485635345011, 490.0: 0.002764034691410512, 503.0: 0.15558740177408845}</t>
+    <t>{221.0: 0.9001536098310298, 999.0: 0.09984639016897083}</t>
+  </si>
+  <si>
+    <t>{222.0: 0.8413236115648751, 490.0: 0.0027697896677032928, 503.0: 0.1559065987674213}</t>
   </si>
   <si>
     <t>{223.0: 1.0}</t>
@@ -1987,16 +1987,16 @@
     <t>{226.0: 1.0}</t>
   </si>
   <si>
-    <t>{227.0: 0.999666475270424, 297.0: 0.00018045618356780216, 686.0: 0.00015306854600825932}</t>
-  </si>
-  <si>
-    <t>{228.0: 0.9923809523809523, 738.0: 0.007619047619047617}</t>
+    <t>{227.0: 0.9996683166600523, 297.0: 0.0001786147939395593, 686.0: 0.00015306854600825932}</t>
+  </si>
+  <si>
+    <t>{228.0: 0.9923809523809523, 738.0: 0.007619047619047623}</t>
   </si>
   <si>
     <t>{595.0: 1.0}</t>
   </si>
   <si>
-    <t>{240.0: 0.23750306546350664, 241.0: 0.7624969345364934}</t>
+    <t>{240.0: 0.23750306546350655, 241.0: 0.7624969345364934}</t>
   </si>
   <si>
     <t>{241.0: 1.0}</t>
@@ -2017,22 +2017,22 @@
     <t>{253.0: 1.0}</t>
   </si>
   <si>
-    <t>{255.0: 0.8887904297740358, 973.0: 0.10014817456462068, 494.0: 0.011061395661342984}</t>
-  </si>
-  <si>
-    <t>{263.0: 0.9986023245549507, 595.0: 0.0013976754450492864}</t>
+    <t>{255.0: 0.8887904297740364, 973.0: 0.1001735060050665, 494.0: 0.011036064220897158}</t>
+  </si>
+  <si>
+    <t>{263.0: 0.9986024273630011, 595.0: 0.0013975726369988967}</t>
   </si>
   <si>
     <t>{264.0: 1.0}</t>
   </si>
   <si>
-    <t>{834.0: 0.28869996457669145, 887.0: 0.7113000354233081}</t>
+    <t>{834.0: 0.28869996457669145, 887.0: 0.7113000354233089}</t>
   </si>
   <si>
     <t>{268.0: 1.0}</t>
   </si>
   <si>
-    <t>{270.0: 0.9873640905083749, 479.0: 0.012356147657862119, 942.0: 0.0002797618337629159}</t>
+    <t>{270.0: 0.9873640905083749, 479.0: 0.012350620848352223, 942.0: 0.0002852886432728136}</t>
   </si>
   <si>
     <t>{272.0: 0.8427700348432056, 203.0: 0.15722996515679444}</t>
@@ -2044,7 +2044,7 @@
     <t>{276.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9637501241434107, 180.0: 0.03624987585658953}</t>
+    <t>{277.0: 0.9637501241434103, 180.0: 0.036249875856589536}</t>
   </si>
   <si>
     <t>{278.0: 0.9590864276721839, 767.0: 0.016295795701747166, 757.0: 0.02461777662606893}</t>
@@ -2068,10 +2068,10 @@
     <t>{297.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.9860774179938827, 297.0: 0.0139225820061175}</t>
-  </si>
-  <si>
-    <t>{303.0: 0.9976967370441459, 144.0: 0.0023032629558541267}</t>
+    <t>{298.0: 0.986078886310905, 297.0: 0.013921113689095124}</t>
+  </si>
+  <si>
+    <t>{303.0: 0.9976869699306091, 144.0: 0.002313030069390902}</t>
   </si>
   <si>
     <t>{305.0: 1.0}</t>
@@ -2080,28 +2080,28 @@
     <t>{142.0: 0.3165679387265435, 909.0: 0.6834320612734565}</t>
   </si>
   <si>
-    <t>{309.0: 0.8858654923525083, 204.0: 0.040985444079406186, 426.0: 0.07314326591581212, 857.0: 5.797652272921261e-06}</t>
-  </si>
-  <si>
-    <t>{310.0: 0.8499271491015055, 887.0: 0.15007285089849443}</t>
+    <t>{309.0: 0.8880984604071779, 204.0: 0.041033345463431264, 426.0: 0.07086273685860801, 857.0: 5.457270782499869e-06}</t>
+  </si>
+  <si>
+    <t>{310.0: 0.8503631961259079, 887.0: 0.149636803874092}</t>
   </si>
   <si>
     <t>{311.0: 0.9817357775823577, 917.0: 0.018264222417641886}</t>
   </si>
   <si>
-    <t>{315.0: 0.9926840420667581, 217.0: 0.007315957933241884}</t>
-  </si>
-  <si>
-    <t>{317.0: 0.9822371579452714, 71.0: 0.017762842054728757}</t>
-  </si>
-  <si>
-    <t>{400.0: 0.9681191395477113, 897.0: 0.03188086045228902}</t>
+    <t>{315.0: 0.9926840420667583, 217.0: 0.007315957933241884}</t>
+  </si>
+  <si>
+    <t>{317.0: 0.9820519039534322, 71.0: 0.017948096046568034}</t>
+  </si>
+  <si>
+    <t>{400.0: 0.9681191395477112, 897.0: 0.03188086045228902}</t>
   </si>
   <si>
     <t>{401.0: 1.0}</t>
   </si>
   <si>
-    <t>{402.0: 0.9895904270843466, 476.0: 0.008804455271191234, 595.0: 0.001605117644462041}</t>
+    <t>{402.0: 0.9895904270843466, 476.0: 0.008805596079751619, 595.0: 0.0016039768359016567}</t>
   </si>
   <si>
     <t>{403.0: 1.0}</t>
@@ -2110,10 +2110,10 @@
     <t>{404.0: 1.0}</t>
   </si>
   <si>
-    <t>{405.0: 0.364744748746899, 404.0: 0.6352552512531009}</t>
-  </si>
-  <si>
-    <t>{408.0: 0.94304, 403.0: 0.05696}</t>
+    <t>{405.0: 0.3568051425820519, 404.0: 0.6431948574179481}</t>
+  </si>
+  <si>
+    <t>{408.0: 0.9431382570917456, 403.0: 0.056861742908254534}</t>
   </si>
   <si>
     <t>{409.0: 1.0}</t>
@@ -2122,22 +2122,22 @@
     <t>{410.0: 1.0}</t>
   </si>
   <si>
-    <t>{415.0: 0.8731132075471698, 277.0: 0.12228716197857424, 180.0: 0.004599630474255935}</t>
+    <t>{415.0: 0.8729333963155409, 277.0: 0.12246045507537906, 180.0: 0.004606148609080106}</t>
   </si>
   <si>
     <t>{418.0: 1.0}</t>
   </si>
   <si>
-    <t>{419.0: 0.9852104664391352, 17.0: 0.014789533560864617}</t>
-  </si>
-  <si>
-    <t>{420.0: 0.9998354992597467, 212.0: 7.851901692833815e-05, 681.0: 8.598172332499299e-05}</t>
+    <t>{419.0: 0.9852607709750568, 17.0: 0.01473922902494331}</t>
+  </si>
+  <si>
+    <t>{420.0: 0.9998354992597467, 212.0: 7.851901692833814e-05, 681.0: 8.598172332499298e-05}</t>
   </si>
   <si>
     <t>{423.0: 1.0}</t>
   </si>
   <si>
-    <t>{424.0: 0.9520371325425476, 585.0: 0.0475629244060067, 434.0: 0.00039994305144559083}</t>
+    <t>{424.0: 0.9521112255406797, 585.0: 0.047489449239571054, 434.0: 0.00039932521974922795}</t>
   </si>
   <si>
     <t>{426.0: 1.0}</t>
@@ -2146,7 +2146,7 @@
     <t>{428.0: 1.0}</t>
   </si>
   <si>
-    <t>{431.0: 0.9998116051243408, 783.0: 0.00018839487565938207}</t>
+    <t>{431.0: 0.9996376811594203, 783.0: 0.0003623188405797101}</t>
   </si>
   <si>
     <t>{431.0: 1.0}</t>
@@ -2158,25 +2158,25 @@
     <t>{434.0: 1.0}</t>
   </si>
   <si>
-    <t>{441.0: 0.9886363636363632, 782.0: 0.01136363636363637}</t>
-  </si>
-  <si>
-    <t>{443.0: 0.8939655172413792, 291.0: 0.1060344827586207}</t>
-  </si>
-  <si>
-    <t>{476.0: 0.8458036984352778, 595.0: 0.15419630156472267}</t>
+    <t>{441.0: 0.9886363636363636, 782.0: 0.011363636363636364}</t>
+  </si>
+  <si>
+    <t>{443.0: 0.8939655172413793, 291.0: 0.10603448275862068}</t>
+  </si>
+  <si>
+    <t>{476.0: 0.8459132906894105, 595.0: 0.15408670931058996}</t>
   </si>
   <si>
     <t>{477.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.9778597785977858, 942.0: 0.02214022140221402}</t>
+    <t>{479.0: 0.9774223894637818, 942.0: 0.022577610536218252}</t>
   </si>
   <si>
     <t>{481.0: 1.0}</t>
   </si>
   <si>
-    <t>{483.0: 0.9609996213555472, 563.0: 0.03900037864445286}</t>
+    <t>{483.0: 0.9609996213555468, 563.0: 0.03900037864445286}</t>
   </si>
   <si>
     <t>{486.0: 0.8813719916619289, 837.0: 0.11862800833807088}</t>
@@ -2185,19 +2185,19 @@
     <t>{731.0: 1.0}</t>
   </si>
   <si>
-    <t>{489.0: 0.9916936790923824, 935.0: 0.008306320907617504}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9778869778869782, 503.0: 0.02211302211302211}</t>
+    <t>{489.0: 0.991730536506656, 935.0: 0.00826946349334409}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9779141104294479, 503.0: 0.02208588957055215}</t>
   </si>
   <si>
     <t>{491.0: 0.594383150823144, 492.0: 0.4056168491768559}</t>
   </si>
   <si>
-    <t>{492.0: 0.997457315112772, 97.0: 0.002040642802482782, 696.0: 0.0005020420847452014}</t>
-  </si>
-  <si>
-    <t>{493.0: 0.9826319305277217, 108.0: 0.017158243239765756, 144.0: 0.00020982623251213314}</t>
+    <t>{492.0: 0.9974573007827376, 97.0: 0.002040642802482782, 696.0: 0.0005020564147796415}</t>
+  </si>
+  <si>
+    <t>{493.0: 0.9826319305277221, 108.0: 0.017158243239765756, 144.0: 0.00020982623251213314}</t>
   </si>
   <si>
     <t>{494.0: 1.0}</t>
@@ -2206,13 +2206,13 @@
     <t>{495.0: 1.0}</t>
   </si>
   <si>
-    <t>{497.0: 0.8601619027150942, 321.0: 0.1398380972849058}</t>
+    <t>{497.0: 0.8695187165775398, 321.0: 0.1304812834224599}</t>
   </si>
   <si>
     <t>{499.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9637501241434109, 180.0: 0.03624987585658953}</t>
+    <t>{277.0: 0.9637501241434095, 180.0: 0.03624987585658953}</t>
   </si>
   <si>
     <t>{534.0: 1.0}</t>
@@ -2221,19 +2221,19 @@
     <t>{503.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.3887955182072828, 702.0: 0.6112044817927171}</t>
+    <t>{249.0: 0.3887955182072831, 702.0: 0.6112044817927171}</t>
   </si>
   <si>
     <t>{507.0: 1.0}</t>
   </si>
   <si>
-    <t>{535.0: 0.9934522679825395, 71.0: 0.0065477320174606194}</t>
-  </si>
-  <si>
-    <t>{604.0: 0.8182233178124714, 837.0: 0.1817766821875285}</t>
-  </si>
-  <si>
-    <t>{173.0: 0.16679169792448112, 185.0: 0.16654163540885222, 404.0: 0.16654163540885222, 930.0: 0.5001250312578145}</t>
+    <t>{535.0: 0.9934522679825393, 71.0: 0.0065477320174606194}</t>
+  </si>
+  <si>
+    <t>{604.0: 0.8183062602664716, 837.0: 0.18169373973352793}</t>
+  </si>
+  <si>
+    <t>{173.0: 0.16679169792448112, 185.0: 0.16654163540885225, 404.0: 0.16654163540885225, 930.0: 0.5001250312578145}</t>
   </si>
   <si>
     <t>{542.0: 1.0}</t>
@@ -2251,49 +2251,49 @@
     <t>{563.0: 1.0}</t>
   </si>
   <si>
-    <t>{564.0: 0.9223519621587967, 565.0: 0.07764803784120333}</t>
+    <t>{564.0: 0.9246077855267295, 565.0: 0.07539221447327048}</t>
   </si>
   <si>
     <t>{565.0: 1.0}</t>
   </si>
   <si>
-    <t>{576.0: 0.980284775465498, 401.0: 0.019715224534501644}</t>
+    <t>{576.0: 0.9802847754654983, 401.0: 0.019715224534501644}</t>
   </si>
   <si>
     <t>{580.0: 1.0}</t>
   </si>
   <si>
-    <t>{581.0: 0.8894713337125868, 144.0: 0.04651916384581355, 303.0: 0.06400950244159957}</t>
+    <t>{581.0: 0.8894713337125869, 144.0: 0.046519163845813546, 303.0: 0.06400950244159957}</t>
   </si>
   <si>
     <t>{758.0: 1.0}</t>
   </si>
   <si>
-    <t>{585.0: 0.9916614024005053, 434.0: 0.00833859759949463}</t>
+    <t>{585.0: 0.9916614024005054, 434.0: 0.00833859759949463}</t>
   </si>
   <si>
     <t>{81.0: 0.36897941862932315, 172.0: 0.0736261404625504, 507.0: 0.5573944409081265}</t>
   </si>
   <si>
-    <t>{593.0: 0.9945545019247021, 686.0: 0.005445498075298094}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9991026470588212, 402.0: 0.0008894395353984781, 476.0: 7.913405780326473e-06}</t>
+    <t>{593.0: 0.9945641986879098, 686.0: 0.005435801312089972}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9991026460334675, 402.0: 0.0008894395353984778, 476.0: 7.914431134056821e-06}</t>
   </si>
   <si>
     <t>{597.0: 1.0}</t>
   </si>
   <si>
-    <t>{598.0: 0.9923469387755102, 599.0: 0.007653061224489797}</t>
+    <t>{598.0: 0.9923469387755101, 599.0: 0.007653061224489797}</t>
   </si>
   <si>
     <t>{599.0: 1.0}</t>
   </si>
   <si>
-    <t>{603.0: 0.8623827909542195, 617.0: 0.13761720904578048}</t>
-  </si>
-  <si>
-    <t>{604.0: 0.7620095020848969, 837.0: 0.16928820783876697, 922.0: 0.06870229007633588}</t>
+    <t>{603.0: 0.8619640387275243, 617.0: 0.1380359612724758}</t>
+  </si>
+  <si>
+    <t>{604.0: 0.7626932134522454, 837.0: 0.1693456214992105, 922.0: 0.06796116504854369}</t>
   </si>
   <si>
     <t>{606.0: 1.0}</t>
@@ -2305,7 +2305,7 @@
     <t>{613.0: 1.0}</t>
   </si>
   <si>
-    <t>{305.0: 0.8292882465230433, 615.0: 0.019634578674665937, 698.0: 0.0109080992637033, 832.0: 0.14016907553858743}</t>
+    <t>{305.0: 0.8292882465230433, 615.0: 0.01963457867466594, 698.0: 0.0109080992637033, 832.0: 0.1401690755385874}</t>
   </si>
   <si>
     <t>{615.0: 1.0}</t>
@@ -2314,10 +2314,10 @@
     <t>{617.0: 1.0}</t>
   </si>
   <si>
-    <t>{246.0: 0.9870244830639151, 789.0: 0.01297551693608495}</t>
-  </si>
-  <si>
-    <t>{619.0: 0.9655096441914438, 887.0: 0.013007925875422115, 861.0: 0.021466746056462076, 253.0: 1.5683876672083762e-05}</t>
+    <t>{246.0: 0.9870235970064315, 789.0: 0.012976402993568507}</t>
+  </si>
+  <si>
+    <t>{619.0: 0.9654101869025538, 887.0: 0.01304608360679127, 861.0: 0.021528000860446848, 253.0: 1.5728630208029214e-05}</t>
   </si>
   <si>
     <t>{620.0: 0.9954229530428885, 785.0: 0.004577046957111375}</t>
@@ -2329,9 +2329,6 @@
     <t>{629.0: 0.23159851301115242, 209.0: 0.005018587360594796, 788.0: 0.7633828996282528}</t>
   </si>
   <si>
-    <t>{603.0: 0.8623827909542197, 617.0: 0.13761720904578048}</t>
-  </si>
-  <si>
     <t>{629.0: 1.0}</t>
   </si>
   <si>
@@ -2356,25 +2353,25 @@
     <t>{615.0: 0.585884524498907, 698.0: 0.12135505202398525, 751.0: 0.2927604234771076}</t>
   </si>
   <si>
-    <t>{687.0: 0.7058427004955543, 534.0: 0.29267935943527196, 174.0: 0.0014779400691736146}</t>
+    <t>{687.0: 0.707188847156117, 534.0: 0.291314676333301, 174.0: 0.0014964765105820598}</t>
   </si>
   <si>
     <t>{691.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.9488141498057081, 165.0: 0.04194023850998258, 433.0: 0.00924561168430926}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.7213799011643242, 857.0: 0.2786200988356758}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9840861597813855, 492.0: 0.01591384021861437}</t>
+    <t>{86.0: 0.9488141498057084, 165.0: 0.04194023850998258, 433.0: 0.00924561168430926}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.7214598032652256, 857.0: 0.2785401967347743}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9841142490372271, 492.0: 0.015885750962772786}</t>
   </si>
   <si>
     <t>{698.0: 1.0}</t>
   </si>
   <si>
-    <t>{704.0: 0.9874529485570891, 481.0: 0.012547051442910916}</t>
+    <t>{704.0: 0.9874529485570893, 481.0: 0.012547051442910913}</t>
   </si>
   <si>
     <t>{707.0: 1.0}</t>
@@ -2383,46 +2380,46 @@
     <t>{729.0: 1.0}</t>
   </si>
   <si>
-    <t>{730.0: 0.8502549837737599, 289.0: 0.14974501622624012}</t>
-  </si>
-  <si>
-    <t>{733.0: 0.9015677890611085, 147.0: 0.09843221093889183}</t>
-  </si>
-  <si>
-    <t>{888.0: 0.9943438914027151, 73.0: 0.005656108597285069}</t>
+    <t>{730.0: 0.8502549837737599, 289.0: 0.14974501622624015}</t>
+  </si>
+  <si>
+    <t>{733.0: 0.9015677890611088, 147.0: 0.09843221093889183}</t>
+  </si>
+  <si>
+    <t>{888.0: 0.9944567627494456, 73.0: 0.005543237250554325}</t>
   </si>
   <si>
     <t>{735.0: 1.0}</t>
   </si>
   <si>
-    <t>{737.0: 0.9266375545851531, 223.0: 0.03580786026200873, 428.0: 0.03755458515283843}</t>
+    <t>{737.0: 0.9279588336192109, 223.0: 0.03516295025728988, 428.0: 0.03687821612349914}</t>
   </si>
   <si>
     <t>{738.0: 1.0}</t>
   </si>
   <si>
-    <t>{740.0: 0.701123595505618, 789.0: 0.2817308042745055, 246.0: 0.017145600219876624}</t>
-  </si>
-  <si>
-    <t>{741.0: 0.8859583153113909, 90.0: 0.09275598362042738, 789.0: 0.0044006937901610544, 246.0: 0.016885007278020378}</t>
+    <t>{740.0: 0.7011235955056179, 789.0: 0.28175004279029686, 246.0: 0.017126361704085165}</t>
+  </si>
+  <si>
+    <t>{741.0: 0.8859583153113908, 90.0: 0.0927559836204274, 789.0: 0.0044006937901610544, 246.0: 0.016885007278020378}</t>
   </si>
   <si>
     <t>{757.0: 1.0}</t>
   </si>
   <si>
-    <t>{746.0: 0.9899854627685353, 691.0: 0.010014537231465032}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.5626309174696271, 476.0: 0.20374408320078946, 595.0: 0.037144060913161095, 534.0: 0.19648093841642233}</t>
+    <t>{746.0: 0.9899854627685349, 691.0: 0.010014537231465032}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.5626309174696271, 476.0: 0.20377048267549688, 595.0: 0.037117661438453804, 534.0: 0.19648093841642233}</t>
   </si>
   <si>
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{754.0: 0.9200087710787183, 917.0: 0.07999122892128212}</t>
-  </si>
-  <si>
-    <t>{757.0: 0.9970781592403216, 634.0: 0.0029218407596785976}</t>
+    <t>{754.0: 0.8492529563266304, 917.0: 0.15074704367336975}</t>
+  </si>
+  <si>
+    <t>{757.0: 0.9966315789473683, 634.0: 0.0033684210526315796}</t>
   </si>
   <si>
     <t>{760.0: 0.7957918248415948, 761.0: 0.20420817515840517}</t>
@@ -2431,7 +2428,7 @@
     <t>{761.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.9420988600009013, 762.0: 0.057901139999098815}</t>
+    <t>{141.0: 0.9421837681943135, 762.0: 0.05781623180568697}</t>
   </si>
   <si>
     <t>{764.0: 1.0}</t>
@@ -2440,25 +2437,25 @@
     <t>{767.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 0.9803571428571429, 410.0: 0.01365334274537486, 729.0: 0.0059895143974822785}</t>
-  </si>
-  <si>
-    <t>{772.0: 0.9882429784454607, 493.0: 0.011552824787393206, 108.0: 0.00020172983560795798, 144.0: 2.46693153835297e-06}</t>
-  </si>
-  <si>
-    <t>{773.0: 0.8230245634803199, 757.0: 0.17697543651968028}</t>
-  </si>
-  <si>
-    <t>{778.0: 0.9784971368470252, 171.0: 0.019400059612387836, 184.0: 0.0004353696538871635, 593.0: 0.0016674338866991749}</t>
+    <t>{770.0: 0.9801712483100496, 410.0: 0.013782554190914686, 729.0: 0.006046197499035739}</t>
+  </si>
+  <si>
+    <t>{772.0: 0.9882429784454604, 493.0: 0.01155282478739321, 108.0: 0.0002017298356079579, 144.0: 2.46693153835297e-06}</t>
+  </si>
+  <si>
+    <t>{773.0: 0.8230245634803196, 757.0: 0.17697543651968034}</t>
+  </si>
+  <si>
+    <t>{778.0: 0.9790504383468064, 171.0: 0.018900952703514936, 184.0: 0.0004239793978974138, 593.0: 0.0016246295517813182}</t>
   </si>
   <si>
     <t>{780.0: 1.0}</t>
   </si>
   <si>
-    <t>{781.0: 0.9996501457725946, 81.0: 0.00034934283424021336, 172.0: 5.113931650345672e-07}</t>
-  </si>
-  <si>
-    <t>{782.0: 0.9974744701877676, 168.0: 0.001756890304161634, 930.0: 0.0007686395080707148}</t>
+    <t>{781.0: 0.9996501457725947, 81.0: 0.00034934241636705996, 172.0: 5.118110381878884e-07}</t>
+  </si>
+  <si>
+    <t>{782.0: 0.9974866134848652, 168.0: 0.001748442793137362, 930.0: 0.0007649437219975958}</t>
   </si>
   <si>
     <t>{783.0: 1.0}</t>
@@ -2470,64 +2467,64 @@
     <t>{204.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9637501241434102, 180.0: 0.03624987585658953}</t>
+    <t>{277.0: 0.9637501241434099, 180.0: 0.03624987585658953}</t>
   </si>
   <si>
     <t>{788.0: 1.0}</t>
   </si>
   <si>
-    <t>{789.0: 0.9426331421214654, 246.0: 0.05736685787853455}</t>
+    <t>{789.0: 0.9426975115915948, 246.0: 0.05730248840840527}</t>
   </si>
   <si>
     <t>{832.0: 1.0}</t>
   </si>
   <si>
-    <t>{835.0: 0.9904058244467709, 836.0: 0.009594175553229306}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9918426103646832, 835.0: 0.008157389635316698}</t>
-  </si>
-  <si>
-    <t>{837.0: 0.8688955361645068, 486.0: 0.027089045507059796, 604.0: 0.10401541832843342}</t>
-  </si>
-  <si>
-    <t>{838.0: 0.9032978861255628, 19.0: 0.08895370913423661, 423.0: 0.007748404740200546}</t>
-  </si>
-  <si>
-    <t>{227.0: 0.9322033898305084, 686.0: 0.06779661016949153}</t>
-  </si>
-  <si>
-    <t>{848.0: 0.9943369513921663, 707.0: 0.0056630486078338834}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.5086748084256288, 277.0: 0.4913251915743714}</t>
-  </si>
-  <si>
-    <t>{851.0: 0.9234303215926492, 7.0: 0.07656967840735066}</t>
-  </si>
-  <si>
-    <t>{852.0: 0.9899146625290922, 922.0: 0.01008533747090768}</t>
-  </si>
-  <si>
-    <t>{853.0: 0.9902136964559436, 91.0: 0.0011740693813160623, 92.0: 2.176143270558557e-07, 202.0: 0.008525501707300626, 680.0: 8.651484111278481e-05}</t>
-  </si>
-  <si>
-    <t>{854.0: 0.8709557082323128, 976.0: 0.1290442917676874}</t>
-  </si>
-  <si>
-    <t>{857.0: 0.9947818696254721, 298.0: 0.005218130374527884}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.9872985781990521, 543.0: 0.012701421800947865}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.9908212213410212, 253.0: 0.0007239065389194395, 490.0: 0.008454872120059184}</t>
+    <t>{835.0: 0.9900669157761305, 836.0: 0.009933084223869343}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9922515952597996, 835.0: 0.007748404740200545}</t>
+  </si>
+  <si>
+    <t>{837.0: 0.8688849922288081, 486.0: 0.027089045507059803, 604.0: 0.10402596226413191}</t>
+  </si>
+  <si>
+    <t>{838.0: 0.9032978861255628, 19.0: 0.08895370913423661, 423.0: 0.007748404740200548}</t>
+  </si>
+  <si>
+    <t>{227.0: 0.9322033898305087, 686.0: 0.06779661016949153}</t>
+  </si>
+  <si>
+    <t>{848.0: 0.9943369513921657, 707.0: 0.005663048607833885}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.1291184282474344, 277.0: 0.8708815717525658}</t>
+  </si>
+  <si>
+    <t>{851.0: 0.923430321592649, 7.0: 0.07656967840735066}</t>
+  </si>
+  <si>
+    <t>{852.0: 0.9898358092259578, 922.0: 0.010164190774042221}</t>
+  </si>
+  <si>
+    <t>{853.0: 0.9902136964559435, 91.0: 0.0011740693813160623, 92.0: 2.1761432705585568e-07, 202.0: 0.008525501707300626, 680.0: 8.651484111278481e-05}</t>
+  </si>
+  <si>
+    <t>{854.0: 0.8709467235310048, 976.0: 0.1290532764689954}</t>
+  </si>
+  <si>
+    <t>{857.0: 0.9947307303085413, 298.0: 0.005269269691458646}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.9872985781990521, 543.0: 0.01270142180094787}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.9908122828101358, 253.0: 0.000723900008315515, 490.0: 0.008463817181548879}</t>
   </si>
   <si>
     <t>{863.0: 0.9722739981360671, 10.0: 0.027726001863932898}</t>
   </si>
   <si>
-    <t>{887.0: 0.9991196024500588, 834.0: 0.0008803975499411181}</t>
+    <t>{887.0: 0.999132407847768, 834.0: 0.0008675921522319134}</t>
   </si>
   <si>
     <t>{888.0: 1.0}</t>
@@ -2542,7 +2539,7 @@
     <t>{905.0: 0.9854766589161152, 499.0: 0.014523341083884813}</t>
   </si>
   <si>
-    <t>{782.0: 0.11011414486022414, 930.0: 0.857348306019154, 404.0: 0.03253754912062153}</t>
+    <t>{782.0: 0.11021464052247713, 930.0: 0.857469242257538, 404.0: 0.032316117219984695}</t>
   </si>
   <si>
     <t>{910.0: 1.0}</t>
@@ -2551,13 +2548,13 @@
     <t>{914.0: 1.0}</t>
   </si>
   <si>
-    <t>{915.0: 0.5124185505583967, 171.0: 0.26032762398046216, 420.0: 0.22725382546114126}</t>
+    <t>{915.0: 0.5204580106136844, 171.0: 0.2557483187470411, 420.0: 0.22379367063927466}</t>
   </si>
   <si>
     <t>{917.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.9939789262418465, 297.0: 0.006021073758153537}</t>
+    <t>{298.0: 0.9941104294478528, 297.0: 0.00588957055214724}</t>
   </si>
   <si>
     <t>{921.0: 0.8294810569070874, 686.0: 0.17051894309291252}</t>
@@ -2566,22 +2563,22 @@
     <t>{922.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.9420988600009009, 762.0: 0.05790113999909883}</t>
-  </si>
-  <si>
-    <t>{3.0: 0.6037465689154068, 418.0: 0.2270676708955247, 922.0: 0.16918576018906853}</t>
-  </si>
-  <si>
-    <t>{929.0: 0.5434843696206071, 930.0: 0.4565156303793927}</t>
-  </si>
-  <si>
-    <t>{930.0: 0.9963250193854808, 929.0: 0.0036749806145191413}</t>
+    <t>{141.0: 0.9421837681943134, 762.0: 0.05781623180568698}</t>
+  </si>
+  <si>
+    <t>{3.0: 0.6037733799331189, 418.0: 0.22706009789142134, 922.0: 0.1691665221754596}</t>
+  </si>
+  <si>
+    <t>{929.0: 0.5440607146871506, 930.0: 0.4559392853128495}</t>
+  </si>
+  <si>
+    <t>{930.0: 0.9962050569246313, 929.0: 0.0037949430753685355}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.4603215449567747, 702.0: 0.5396784550432253}</t>
+    <t>{249.0: 0.46002285695495415, 702.0: 0.5399771430450461}</t>
   </si>
   <si>
     <t>{934.0: 0.9748517200474494, 5.0: 0.025148279952550416}</t>
@@ -2590,28 +2587,28 @@
     <t>{935.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.9916176129471715, 171.0: 0.0032933285286552176, 85.0: 0.005089058524173028}</t>
-  </si>
-  <si>
-    <t>{910.0: 0.49665686012302757, 497.0: 0.15993581171436216, 731.0: 0.34340732816261027}</t>
-  </si>
-  <si>
-    <t>{785.0: 0.5122362869198313, 206.0: 0.487763713080169}</t>
+    <t>{593.0: 0.9916176050004195, 171.0: 0.0032933364754076174, 85.0: 0.005089058524173028}</t>
+  </si>
+  <si>
+    <t>{910.0: 0.49665686012302757, 497.0: 0.15993581171436214, 731.0: 0.34340732816261027}</t>
+  </si>
+  <si>
+    <t>{785.0: 0.4978279756733277, 206.0: 0.5021720243266724}</t>
   </si>
   <si>
     <t>{942.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 0.9131443726172718, 634.0: 0.08685562738272833}</t>
-  </si>
-  <si>
-    <t>{971.0: 0.9930875576036869, 975.0: 0.005883289646722212, 152.0: 0.0010291527495911526}</t>
-  </si>
-  <si>
-    <t>{139.0: 0.9541375872382851, 615.0: 0.045862412761714856}</t>
-  </si>
-  <si>
-    <t>{973.0: 0.9005355776587604, 494.0: 0.09946442234123953}</t>
+    <t>{943.0: 0.9149350649350652, 634.0: 0.08506493506493507}</t>
+  </si>
+  <si>
+    <t>{971.0: 0.993087557603687, 975.0: 0.005883289646722212, 152.0: 0.0010291527495911521}</t>
+  </si>
+  <si>
+    <t>{139.0: 0.9537688442211056, 615.0: 0.04623115577889446}</t>
+  </si>
+  <si>
+    <t>{973.0: 0.9007633587786258, 494.0: 0.09923664122137404}</t>
   </si>
   <si>
     <t>{975.0: 1.0}</t>
@@ -2623,16 +2620,16 @@
     <t>{782.0: 1.0}</t>
   </si>
   <si>
-    <t>{981.0: 0.5954814416352878, 431.0: 0.4045185583647122}</t>
+    <t>{981.0: 0.7119877441593259, 431.0: 0.288012255840674}</t>
   </si>
   <si>
     <t>{989.0: 0.9567945932898866, 249.0: 0.007603186097031138, 495.0: 0.035602220613082304}</t>
   </si>
   <si>
-    <t>{990.0: 0.9929775280898875, 599.0: 0.00702247191011236}</t>
-  </si>
-  <si>
-    <t>{497.0: 0.8418645926685598, 910.0: 0.09349170691323942, 731.0: 0.06464370041820106}</t>
+    <t>{990.0: 0.9929775280898875, 599.0: 0.0070224719101123585}</t>
+  </si>
+  <si>
+    <t>{497.0: 0.8418645926685598, 910.0: 0.0934917069132394, 731.0: 0.06464370041820106}</t>
   </si>
   <si>
     <t>{410.0: 0.6950792670372656, 729.0: 0.3049207329627342}</t>
@@ -4695,7 +4692,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -4706,7 +4703,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -4717,29 +4714,29 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>662</v>
+        <v>158</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>159</v>
+        <v>662</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -4750,106 +4747,106 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>663</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>164</v>
+        <v>665</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>666</v>
+        <v>165</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
       </c>
       <c r="C165" t="s">
-        <v>166</v>
+        <v>666</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>667</v>
+        <v>167</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
       </c>
       <c r="C167" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
       </c>
       <c r="C168" t="s">
-        <v>169</v>
+        <v>649</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4860,7 +4857,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4871,7 +4868,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4882,7 +4879,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4893,7 +4890,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -4904,106 +4901,106 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>668</v>
+        <v>175</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>649</v>
+        <v>669</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>670</v>
+        <v>649</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>181</v>
+        <v>672</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>673</v>
+        <v>182</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
       </c>
       <c r="C182" t="s">
-        <v>183</v>
+        <v>673</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -5014,62 +5011,62 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>674</v>
+        <v>185</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>189</v>
+        <v>677</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -5080,7 +5077,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -5091,29 +5088,29 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>637</v>
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>193</v>
+        <v>637</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -5124,7 +5121,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -5135,117 +5132,117 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>678</v>
+        <v>196</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>197</v>
+        <v>678</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>679</v>
+        <v>198</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>200</v>
+        <v>680</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>681</v>
+        <v>201</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>203</v>
+        <v>682</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>608</v>
+        <v>204</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>205</v>
+        <v>608</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -5256,40 +5253,40 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>683</v>
+        <v>207</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>209</v>
+        <v>684</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -5300,7 +5297,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -5311,7 +5308,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
@@ -5322,62 +5319,62 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>685</v>
+        <v>213</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>214</v>
+        <v>685</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>686</v>
+        <v>215</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
       </c>
       <c r="C216" t="s">
-        <v>217</v>
+        <v>687</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
@@ -5388,51 +5385,51 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>688</v>
+        <v>219</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
       </c>
       <c r="C219" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
       </c>
       <c r="C220" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
       </c>
       <c r="C221" t="s">
-        <v>222</v>
+        <v>690</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
@@ -5443,51 +5440,51 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>691</v>
+        <v>224</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B224" t="s">
         <v>225</v>
       </c>
       <c r="C224" t="s">
-        <v>225</v>
+        <v>691</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B225" t="s">
         <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>692</v>
+        <v>226</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B226" t="s">
         <v>227</v>
       </c>
       <c r="C226" t="s">
-        <v>227</v>
+        <v>692</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B227" t="s">
         <v>228</v>
@@ -5498,7 +5495,7 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B228" t="s">
         <v>229</v>
@@ -7231,7 +7228,7 @@
         <v>386</v>
       </c>
       <c r="C385" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -7242,7 +7239,7 @@
         <v>387</v>
       </c>
       <c r="C386" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -7264,7 +7261,7 @@
         <v>389</v>
       </c>
       <c r="C388" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -7275,7 +7272,7 @@
         <v>390</v>
       </c>
       <c r="C389" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -7297,7 +7294,7 @@
         <v>392</v>
       </c>
       <c r="C391" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -7308,7 +7305,7 @@
         <v>393</v>
       </c>
       <c r="C392" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -7341,7 +7338,7 @@
         <v>396</v>
       </c>
       <c r="C395" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -7352,7 +7349,7 @@
         <v>397</v>
       </c>
       <c r="C396" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -7374,7 +7371,7 @@
         <v>399</v>
       </c>
       <c r="C398" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -7418,7 +7415,7 @@
         <v>403</v>
       </c>
       <c r="C402" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -7462,7 +7459,7 @@
         <v>407</v>
       </c>
       <c r="C406" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -7495,7 +7492,7 @@
         <v>410</v>
       </c>
       <c r="C409" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -7506,7 +7503,7 @@
         <v>411</v>
       </c>
       <c r="C410" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -7517,7 +7514,7 @@
         <v>412</v>
       </c>
       <c r="C411" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -7539,7 +7536,7 @@
         <v>414</v>
       </c>
       <c r="C413" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -7572,7 +7569,7 @@
         <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -7594,7 +7591,7 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7627,7 +7624,7 @@
         <v>422</v>
       </c>
       <c r="C421" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -7649,7 +7646,7 @@
         <v>424</v>
       </c>
       <c r="C423" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -7660,7 +7657,7 @@
         <v>425</v>
       </c>
       <c r="C424" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -7693,7 +7690,7 @@
         <v>428</v>
       </c>
       <c r="C427" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -7704,7 +7701,7 @@
         <v>429</v>
       </c>
       <c r="C428" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -7715,7 +7712,7 @@
         <v>430</v>
       </c>
       <c r="C429" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -7737,7 +7734,7 @@
         <v>432</v>
       </c>
       <c r="C431" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -7748,7 +7745,7 @@
         <v>433</v>
       </c>
       <c r="C432" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -7770,7 +7767,7 @@
         <v>435</v>
       </c>
       <c r="C434" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -7781,7 +7778,7 @@
         <v>436</v>
       </c>
       <c r="C435" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -7803,7 +7800,7 @@
         <v>438</v>
       </c>
       <c r="C437" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7814,7 +7811,7 @@
         <v>439</v>
       </c>
       <c r="C438" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -7847,7 +7844,7 @@
         <v>442</v>
       </c>
       <c r="C441" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -7869,7 +7866,7 @@
         <v>444</v>
       </c>
       <c r="C443" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -7902,7 +7899,7 @@
         <v>447</v>
       </c>
       <c r="C446" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -7935,7 +7932,7 @@
         <v>450</v>
       </c>
       <c r="C449" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -7968,7 +7965,7 @@
         <v>453</v>
       </c>
       <c r="C452" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -7979,7 +7976,7 @@
         <v>454</v>
       </c>
       <c r="C453" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -7990,7 +7987,7 @@
         <v>455</v>
       </c>
       <c r="C454" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -8012,7 +8009,7 @@
         <v>457</v>
       </c>
       <c r="C456" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -8045,7 +8042,7 @@
         <v>460</v>
       </c>
       <c r="C459" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -8078,7 +8075,7 @@
         <v>463</v>
       </c>
       <c r="C462" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -8100,7 +8097,7 @@
         <v>465</v>
       </c>
       <c r="C464" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -8111,7 +8108,7 @@
         <v>466</v>
       </c>
       <c r="C465" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -8155,7 +8152,7 @@
         <v>470</v>
       </c>
       <c r="C469" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -8177,7 +8174,7 @@
         <v>472</v>
       </c>
       <c r="C471" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -8188,7 +8185,7 @@
         <v>473</v>
       </c>
       <c r="C472" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -8199,7 +8196,7 @@
         <v>474</v>
       </c>
       <c r="C473" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -8210,7 +8207,7 @@
         <v>475</v>
       </c>
       <c r="C474" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -8232,7 +8229,7 @@
         <v>477</v>
       </c>
       <c r="C476" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -8243,7 +8240,7 @@
         <v>478</v>
       </c>
       <c r="C477" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -8254,7 +8251,7 @@
         <v>479</v>
       </c>
       <c r="C478" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -8265,7 +8262,7 @@
         <v>480</v>
       </c>
       <c r="C479" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -8276,7 +8273,7 @@
         <v>481</v>
       </c>
       <c r="C480" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -8298,7 +8295,7 @@
         <v>483</v>
       </c>
       <c r="C482" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -8331,7 +8328,7 @@
         <v>486</v>
       </c>
       <c r="C485" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -8342,7 +8339,7 @@
         <v>487</v>
       </c>
       <c r="C486" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -8353,7 +8350,7 @@
         <v>488</v>
       </c>
       <c r="C487" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -8364,7 +8361,7 @@
         <v>489</v>
       </c>
       <c r="C488" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -8430,7 +8427,7 @@
         <v>495</v>
       </c>
       <c r="C494" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -8474,7 +8471,7 @@
         <v>499</v>
       </c>
       <c r="C498" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -8496,7 +8493,7 @@
         <v>501</v>
       </c>
       <c r="C500" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -8507,7 +8504,7 @@
         <v>502</v>
       </c>
       <c r="C501" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -8518,7 +8515,7 @@
         <v>503</v>
       </c>
       <c r="C502" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -8529,7 +8526,7 @@
         <v>504</v>
       </c>
       <c r="C503" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -8540,7 +8537,7 @@
         <v>505</v>
       </c>
       <c r="C504" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -8573,7 +8570,7 @@
         <v>508</v>
       </c>
       <c r="C507" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -8584,7 +8581,7 @@
         <v>509</v>
       </c>
       <c r="C508" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -8617,7 +8614,7 @@
         <v>512</v>
       </c>
       <c r="C511" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -8628,7 +8625,7 @@
         <v>513</v>
       </c>
       <c r="C512" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -8639,7 +8636,7 @@
         <v>514</v>
       </c>
       <c r="C513" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -8672,7 +8669,7 @@
         <v>517</v>
       </c>
       <c r="C516" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -8683,7 +8680,7 @@
         <v>518</v>
       </c>
       <c r="C517" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -8738,7 +8735,7 @@
         <v>523</v>
       </c>
       <c r="C522" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -8771,7 +8768,7 @@
         <v>526</v>
       </c>
       <c r="C525" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -8793,7 +8790,7 @@
         <v>528</v>
       </c>
       <c r="C527" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -8815,7 +8812,7 @@
         <v>530</v>
       </c>
       <c r="C529" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -8826,7 +8823,7 @@
         <v>531</v>
       </c>
       <c r="C530" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -8848,7 +8845,7 @@
         <v>533</v>
       </c>
       <c r="C532" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -8881,7 +8878,7 @@
         <v>536</v>
       </c>
       <c r="C535" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -8892,7 +8889,7 @@
         <v>537</v>
       </c>
       <c r="C536" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -8914,7 +8911,7 @@
         <v>539</v>
       </c>
       <c r="C538" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -8936,7 +8933,7 @@
         <v>541</v>
       </c>
       <c r="C540" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -8958,7 +8955,7 @@
         <v>543</v>
       </c>
       <c r="C542" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -8969,7 +8966,7 @@
         <v>544</v>
       </c>
       <c r="C543" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -9002,7 +8999,7 @@
         <v>547</v>
       </c>
       <c r="C546" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -9035,7 +9032,7 @@
         <v>550</v>
       </c>
       <c r="C549" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -9046,7 +9043,7 @@
         <v>551</v>
       </c>
       <c r="C550" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -9057,7 +9054,7 @@
         <v>552</v>
       </c>
       <c r="C551" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -9068,7 +9065,7 @@
         <v>553</v>
       </c>
       <c r="C552" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -9090,7 +9087,7 @@
         <v>555</v>
       </c>
       <c r="C554" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -9101,7 +9098,7 @@
         <v>556</v>
       </c>
       <c r="C555" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -9112,7 +9109,7 @@
         <v>557</v>
       </c>
       <c r="C556" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -9134,7 +9131,7 @@
         <v>559</v>
       </c>
       <c r="C558" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -9145,7 +9142,7 @@
         <v>560</v>
       </c>
       <c r="C559" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -9167,7 +9164,7 @@
         <v>562</v>
       </c>
       <c r="C561" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -9189,7 +9186,7 @@
         <v>564</v>
       </c>
       <c r="C563" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -9200,7 +9197,7 @@
         <v>565</v>
       </c>
       <c r="C564" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -9222,7 +9219,7 @@
         <v>567</v>
       </c>
       <c r="C566" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -9233,7 +9230,7 @@
         <v>568</v>
       </c>
       <c r="C567" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -9244,7 +9241,7 @@
         <v>569</v>
       </c>
       <c r="C568" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -9266,7 +9263,7 @@
         <v>571</v>
       </c>
       <c r="C570" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -9277,7 +9274,7 @@
         <v>572</v>
       </c>
       <c r="C571" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -9299,7 +9296,7 @@
         <v>574</v>
       </c>
       <c r="C573" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -9332,7 +9329,7 @@
         <v>577</v>
       </c>
       <c r="C576" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -9343,7 +9340,7 @@
         <v>578</v>
       </c>
       <c r="C577" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -9354,7 +9351,7 @@
         <v>579</v>
       </c>
       <c r="C578" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -9365,7 +9362,7 @@
         <v>580</v>
       </c>
       <c r="C579" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -9376,7 +9373,7 @@
         <v>581</v>
       </c>
       <c r="C580" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
   </sheetData>
